--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -6627,28 +6627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1082.737816979291</v>
+        <v>1216.80417238373</v>
       </c>
       <c r="AB2" t="n">
-        <v>1481.449648212324</v>
+        <v>1664.885150266847</v>
       </c>
       <c r="AC2" t="n">
-        <v>1340.062173014579</v>
+        <v>1505.990848206363</v>
       </c>
       <c r="AD2" t="n">
-        <v>1082737.81697929</v>
+        <v>1216804.17238373</v>
       </c>
       <c r="AE2" t="n">
-        <v>1481449.648212324</v>
+        <v>1664885.150266847</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.798214321751349e-07</v>
+        <v>1.257847636584284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.35026041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1340062.173014579</v>
+        <v>1505990.848206363</v>
       </c>
     </row>
     <row r="3">
@@ -6733,28 +6733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>766.4096727731608</v>
+        <v>875.999486095672</v>
       </c>
       <c r="AB3" t="n">
-        <v>1048.635525896698</v>
+        <v>1198.581143245902</v>
       </c>
       <c r="AC3" t="n">
-        <v>948.5552230743209</v>
+        <v>1084.190241153712</v>
       </c>
       <c r="AD3" t="n">
-        <v>766409.6727731607</v>
+        <v>875999.486095672</v>
       </c>
       <c r="AE3" t="n">
-        <v>1048635.525896698</v>
+        <v>1198581.143245902</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.764736404524056e-07</v>
+        <v>1.621705708282914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.33723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>948555.2230743209</v>
+        <v>1084190.241153712</v>
       </c>
     </row>
     <row r="4">
@@ -6839,28 +6839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.8865936624994</v>
+        <v>787.4763174764597</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.5143436948679</v>
+        <v>1077.459838574523</v>
       </c>
       <c r="AC4" t="n">
-        <v>838.9936765071863</v>
+        <v>974.6285838053508</v>
       </c>
       <c r="AD4" t="n">
-        <v>677886.5936624995</v>
+        <v>787476.3174764597</v>
       </c>
       <c r="AE4" t="n">
-        <v>927514.3436948679</v>
+        <v>1077459.838574523</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.525902993476198e-07</v>
+        <v>1.762541455678669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.95052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>838993.6765071863</v>
+        <v>974628.5838053508</v>
       </c>
     </row>
     <row r="5">
@@ -6945,28 +6945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>647.9119924975929</v>
+        <v>745.3062052064261</v>
       </c>
       <c r="AB5" t="n">
-        <v>886.5017719949689</v>
+        <v>1019.760830552611</v>
       </c>
       <c r="AC5" t="n">
-        <v>801.8952870888197</v>
+        <v>922.436288127984</v>
       </c>
       <c r="AD5" t="n">
-        <v>647911.9924975929</v>
+        <v>745306.2052064261</v>
       </c>
       <c r="AE5" t="n">
-        <v>886501.7719949689</v>
+        <v>1019760.830552611</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.932278654735226e-07</v>
+        <v>1.837731592512771e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.29947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>801895.2870888197</v>
+        <v>922436.2881279839</v>
       </c>
     </row>
     <row r="6">
@@ -7051,28 +7051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>616.5673313145376</v>
+        <v>714.0467953693914</v>
       </c>
       <c r="AB6" t="n">
-        <v>843.6146237354562</v>
+        <v>976.9903269457479</v>
       </c>
       <c r="AC6" t="n">
-        <v>763.1012280667045</v>
+        <v>883.7477413565809</v>
       </c>
       <c r="AD6" t="n">
-        <v>616567.3313145376</v>
+        <v>714046.7953693913</v>
       </c>
       <c r="AE6" t="n">
-        <v>843614.6237354563</v>
+        <v>976990.3269457479</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.019743819016903e-06</v>
+        <v>1.886793048827269e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.90234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>763101.2280667045</v>
+        <v>883747.741356581</v>
       </c>
     </row>
     <row r="7">
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>606.1393000185232</v>
+        <v>703.6187640733767</v>
       </c>
       <c r="AB7" t="n">
-        <v>829.3465312639773</v>
+        <v>962.7222344742687</v>
       </c>
       <c r="AC7" t="n">
-        <v>750.1948623153097</v>
+        <v>870.8413756051865</v>
       </c>
       <c r="AD7" t="n">
-        <v>606139.3000185231</v>
+        <v>703618.7640733768</v>
       </c>
       <c r="AE7" t="n">
-        <v>829346.5312639773</v>
+        <v>962722.2344742687</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.034378944784244e-06</v>
+        <v>1.91387186318395e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.69401041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>750194.8623153097</v>
+        <v>870841.3756051864</v>
       </c>
     </row>
     <row r="8">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>595.7031739281957</v>
+        <v>680.9871268779225</v>
       </c>
       <c r="AB8" t="n">
-        <v>815.0673631378023</v>
+        <v>931.7566300260813</v>
       </c>
       <c r="AC8" t="n">
-        <v>737.2784779541587</v>
+        <v>842.8310849850347</v>
       </c>
       <c r="AD8" t="n">
-        <v>595703.1739281957</v>
+        <v>680987.1268779224</v>
       </c>
       <c r="AE8" t="n">
-        <v>815067.3631378023</v>
+        <v>931756.6300260813</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.048710630942374e-06</v>
+        <v>1.940389234818723e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.4921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>737278.4779541587</v>
+        <v>842831.0849850348</v>
       </c>
     </row>
     <row r="9">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>588.5154868646401</v>
+        <v>673.7994398143669</v>
       </c>
       <c r="AB9" t="n">
-        <v>805.2328525990721</v>
+        <v>921.9221194873509</v>
       </c>
       <c r="AC9" t="n">
-        <v>728.3825592984226</v>
+        <v>833.9351663292987</v>
       </c>
       <c r="AD9" t="n">
-        <v>588515.4868646401</v>
+        <v>673799.4398143669</v>
       </c>
       <c r="AE9" t="n">
-        <v>805232.852599072</v>
+        <v>921922.1194873509</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.056646743798667e-06</v>
+        <v>1.955073121391724e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.38151041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>728382.5592984227</v>
+        <v>833935.1663292986</v>
       </c>
     </row>
     <row r="10">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>581.2772469482868</v>
+        <v>666.5611998980133</v>
       </c>
       <c r="AB10" t="n">
-        <v>795.3291734169093</v>
+        <v>912.0184403051882</v>
       </c>
       <c r="AC10" t="n">
-        <v>719.4240733575044</v>
+        <v>824.9766803883805</v>
       </c>
       <c r="AD10" t="n">
-        <v>581277.2469482868</v>
+        <v>666561.1998980134</v>
       </c>
       <c r="AE10" t="n">
-        <v>795329.1734169093</v>
+        <v>912018.4403051882</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.066123396209417e-06</v>
+        <v>1.972607409475955e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.25130208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>719424.0733575044</v>
+        <v>824976.6803883805</v>
       </c>
     </row>
     <row r="11">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>576.1086517691533</v>
+        <v>661.39260471888</v>
       </c>
       <c r="AB11" t="n">
-        <v>788.2572734704928</v>
+        <v>904.9465403587715</v>
       </c>
       <c r="AC11" t="n">
-        <v>713.0271056164999</v>
+        <v>818.5797126473759</v>
       </c>
       <c r="AD11" t="n">
-        <v>576108.6517691533</v>
+        <v>661392.6047188799</v>
       </c>
       <c r="AE11" t="n">
-        <v>788257.2734704928</v>
+        <v>904946.5403587715</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.072168846885241e-06</v>
+        <v>1.983793076012447e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.17317708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>713027.1056164999</v>
+        <v>818579.7126473759</v>
       </c>
     </row>
     <row r="12">
@@ -7687,28 +7687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>571.3697343372281</v>
+        <v>656.6536872869549</v>
       </c>
       <c r="AB12" t="n">
-        <v>781.7732775738509</v>
+        <v>898.4625444621297</v>
       </c>
       <c r="AC12" t="n">
-        <v>707.1619331878883</v>
+        <v>812.7145402187642</v>
       </c>
       <c r="AD12" t="n">
-        <v>571369.7343372281</v>
+        <v>656653.6872869548</v>
       </c>
       <c r="AE12" t="n">
-        <v>781773.2775738509</v>
+        <v>898462.5444621297</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.077397344767034e-06</v>
+        <v>1.993467165989954e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.1015625</v>
       </c>
       <c r="AH12" t="n">
-        <v>707161.9331878882</v>
+        <v>812714.5402187642</v>
       </c>
     </row>
     <row r="13">
@@ -7793,28 +7793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>567.6616721064851</v>
+        <v>652.9456250562118</v>
       </c>
       <c r="AB13" t="n">
-        <v>776.6997432415881</v>
+        <v>893.3890101298667</v>
       </c>
       <c r="AC13" t="n">
-        <v>702.5726098515463</v>
+        <v>808.1252168824225</v>
       </c>
       <c r="AD13" t="n">
-        <v>567661.6721064851</v>
+        <v>652945.6250562118</v>
       </c>
       <c r="AE13" t="n">
-        <v>776699.7432415881</v>
+        <v>893389.0101298668</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.080058276724733e-06</v>
+        <v>1.998390586782077e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.06901041666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>702572.6098515464</v>
+        <v>808125.2168824224</v>
       </c>
     </row>
     <row r="14">
@@ -7899,28 +7899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>549.4342480134959</v>
+        <v>646.828371213778</v>
       </c>
       <c r="AB14" t="n">
-        <v>751.7601774603625</v>
+        <v>885.0191135484562</v>
       </c>
       <c r="AC14" t="n">
-        <v>680.0132412255805</v>
+        <v>800.5541314835181</v>
       </c>
       <c r="AD14" t="n">
-        <v>549434.2480134959</v>
+        <v>646828.371213778</v>
       </c>
       <c r="AE14" t="n">
-        <v>751760.1774603624</v>
+        <v>885019.1135484562</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.086920680194587e-06</v>
+        <v>2.011087829877555e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.97786458333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>680013.2412255805</v>
+        <v>800554.1314835181</v>
       </c>
     </row>
     <row r="15">
@@ -8005,28 +8005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>546.2418681610754</v>
+        <v>643.6359913613575</v>
       </c>
       <c r="AB15" t="n">
-        <v>747.3922225084215</v>
+        <v>880.6511585965153</v>
       </c>
       <c r="AC15" t="n">
-        <v>676.0621577637894</v>
+        <v>796.603048021727</v>
       </c>
       <c r="AD15" t="n">
-        <v>546241.8681610754</v>
+        <v>643635.9913613575</v>
       </c>
       <c r="AE15" t="n">
-        <v>747392.2225084215</v>
+        <v>880651.1585965153</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.089558270643884e-06</v>
+        <v>2.015968062767993e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.9453125</v>
       </c>
       <c r="AH15" t="n">
-        <v>676062.1577637894</v>
+        <v>796603.048021727</v>
       </c>
     </row>
     <row r="16">
@@ -8111,28 +8111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>541.7972981764019</v>
+        <v>639.1914213766839</v>
       </c>
       <c r="AB16" t="n">
-        <v>741.3109657748021</v>
+        <v>874.5699018628958</v>
       </c>
       <c r="AC16" t="n">
-        <v>670.5612876377292</v>
+        <v>791.1021778956668</v>
       </c>
       <c r="AD16" t="n">
-        <v>541797.2981764019</v>
+        <v>639191.421376684</v>
       </c>
       <c r="AE16" t="n">
-        <v>741310.965774802</v>
+        <v>874569.9018628958</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.092756057294802e-06</v>
+        <v>2.021884805298879e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH16" t="n">
-        <v>670561.2876377292</v>
+        <v>791102.1778956668</v>
       </c>
     </row>
     <row r="17">
@@ -8217,28 +8217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>540.6310029111911</v>
+        <v>638.0251261114732</v>
       </c>
       <c r="AB17" t="n">
-        <v>739.715189139625</v>
+        <v>872.9741252277186</v>
       </c>
       <c r="AC17" t="n">
-        <v>669.1178096849269</v>
+        <v>789.6586999428644</v>
       </c>
       <c r="AD17" t="n">
-        <v>540631.0029111911</v>
+        <v>638025.1261114732</v>
       </c>
       <c r="AE17" t="n">
-        <v>739715.1891396249</v>
+        <v>872974.1252277186</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.092032470534375e-06</v>
+        <v>2.020545980346635e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.91276041666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>669117.8096849269</v>
+        <v>789658.6999428644</v>
       </c>
     </row>
     <row r="18">
@@ -8323,28 +8323,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>536.8687818280519</v>
+        <v>634.262905028334</v>
       </c>
       <c r="AB18" t="n">
-        <v>734.5675522761939</v>
+        <v>867.8264883642876</v>
       </c>
       <c r="AC18" t="n">
-        <v>664.4614560589879</v>
+        <v>785.0023463169255</v>
       </c>
       <c r="AD18" t="n">
-        <v>536868.7818280519</v>
+        <v>634262.905028334</v>
       </c>
       <c r="AE18" t="n">
-        <v>734567.5522761939</v>
+        <v>867826.4883642875</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.095813794895315e-06</v>
+        <v>2.027542420419653e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.8671875</v>
       </c>
       <c r="AH18" t="n">
-        <v>664461.4560589879</v>
+        <v>785002.3463169255</v>
       </c>
     </row>
     <row r="19">
@@ -8429,28 +8429,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>532.4212447886505</v>
+        <v>617.7904490843978</v>
       </c>
       <c r="AB19" t="n">
-        <v>728.4822358873987</v>
+        <v>845.2881474283267</v>
       </c>
       <c r="AC19" t="n">
-        <v>658.9569137255443</v>
+        <v>764.6150330071326</v>
       </c>
       <c r="AD19" t="n">
-        <v>532421.2447886505</v>
+        <v>617790.4490843978</v>
       </c>
       <c r="AE19" t="n">
-        <v>728482.2358873987</v>
+        <v>845288.1474283268</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.098544751378216e-06</v>
+        <v>2.032595404916833e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.83463541666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>658956.9137255442</v>
+        <v>764615.0330071326</v>
       </c>
     </row>
     <row r="20">
@@ -8535,28 +8535,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>530.0226332410499</v>
+        <v>615.3918375367972</v>
       </c>
       <c r="AB20" t="n">
-        <v>725.2003497486984</v>
+        <v>842.0062612896263</v>
       </c>
       <c r="AC20" t="n">
-        <v>655.9882461937652</v>
+        <v>761.6463654753536</v>
       </c>
       <c r="AD20" t="n">
-        <v>530022.6332410499</v>
+        <v>615391.8375367972</v>
       </c>
       <c r="AE20" t="n">
-        <v>725200.3497486984</v>
+        <v>842006.2612896264</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.09917497210504e-06</v>
+        <v>2.033761478262336e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH20" t="n">
-        <v>655988.2461937652</v>
+        <v>761646.3654753536</v>
       </c>
     </row>
     <row r="21">
@@ -8641,28 +8641,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>525.9025636878761</v>
+        <v>611.2717679836234</v>
       </c>
       <c r="AB21" t="n">
-        <v>719.5630888214056</v>
+        <v>836.3690003623336</v>
       </c>
       <c r="AC21" t="n">
-        <v>650.8889975374278</v>
+        <v>756.5471168190162</v>
       </c>
       <c r="AD21" t="n">
-        <v>525902.5636878761</v>
+        <v>611271.7679836233</v>
       </c>
       <c r="AE21" t="n">
-        <v>719563.0888214055</v>
+        <v>836369.0003623336</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.101509122945126e-06</v>
+        <v>2.038080268430865e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.79557291666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>650888.9975374278</v>
+        <v>756547.1168190162</v>
       </c>
     </row>
     <row r="22">
@@ -8747,28 +8747,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>524.5733991680845</v>
+        <v>609.9426034638317</v>
       </c>
       <c r="AB22" t="n">
-        <v>717.7444672868265</v>
+        <v>834.5503788277547</v>
       </c>
       <c r="AC22" t="n">
-        <v>649.2439426896577</v>
+        <v>754.9020619712461</v>
       </c>
       <c r="AD22" t="n">
-        <v>524573.3991680845</v>
+        <v>609942.6034638317</v>
       </c>
       <c r="AE22" t="n">
-        <v>717744.4672868266</v>
+        <v>834550.3788277546</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.101952611604742e-06</v>
+        <v>2.038900838562886e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.7890625</v>
       </c>
       <c r="AH22" t="n">
-        <v>649243.9426896577</v>
+        <v>754902.0619712461</v>
       </c>
     </row>
     <row r="23">
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>519.480777009716</v>
+        <v>604.8499813054632</v>
       </c>
       <c r="AB23" t="n">
-        <v>710.7765169791136</v>
+        <v>827.5824285200415</v>
       </c>
       <c r="AC23" t="n">
-        <v>642.9410037797333</v>
+        <v>748.5991230613215</v>
       </c>
       <c r="AD23" t="n">
-        <v>519480.777009716</v>
+        <v>604849.9813054632</v>
       </c>
       <c r="AE23" t="n">
-        <v>710776.5169791136</v>
+        <v>827582.4285200415</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.104450153003635e-06</v>
+        <v>2.043521944043213e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.75651041666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>642941.0037797332</v>
+        <v>748599.1230613216</v>
       </c>
     </row>
     <row r="24">
@@ -8959,28 +8959,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>517.3309374828727</v>
+        <v>602.7001417786198</v>
       </c>
       <c r="AB24" t="n">
-        <v>707.8350116942604</v>
+        <v>824.6409232351884</v>
       </c>
       <c r="AC24" t="n">
-        <v>640.2802316308378</v>
+        <v>745.9383509124261</v>
       </c>
       <c r="AD24" t="n">
-        <v>517330.9374828727</v>
+        <v>602700.1417786198</v>
       </c>
       <c r="AE24" t="n">
-        <v>707835.0116942604</v>
+        <v>824640.9232351885</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.105057032222057e-06</v>
+        <v>2.044644829487031e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH24" t="n">
-        <v>640280.2316308378</v>
+        <v>745938.3509124261</v>
       </c>
     </row>
     <row r="25">
@@ -9065,28 +9065,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>514.4269034610232</v>
+        <v>599.7961077567704</v>
       </c>
       <c r="AB25" t="n">
-        <v>703.8615842286271</v>
+        <v>820.6674957695551</v>
       </c>
       <c r="AC25" t="n">
-        <v>636.6860225057841</v>
+        <v>742.3441417873723</v>
       </c>
       <c r="AD25" t="n">
-        <v>514426.9034610232</v>
+        <v>599796.1077567704</v>
       </c>
       <c r="AE25" t="n">
-        <v>703861.584228627</v>
+        <v>820667.4957695551</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.105267105797665e-06</v>
+        <v>2.045033520602198e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>636686.0225057841</v>
+        <v>742344.1417873723</v>
       </c>
     </row>
     <row r="26">
@@ -9171,28 +9171,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>512.5302156579428</v>
+        <v>597.8994199536899</v>
       </c>
       <c r="AB26" t="n">
-        <v>701.266452300492</v>
+        <v>818.0723638414199</v>
       </c>
       <c r="AC26" t="n">
-        <v>634.3385663265796</v>
+        <v>739.996685608168</v>
       </c>
       <c r="AD26" t="n">
-        <v>512530.2156579428</v>
+        <v>597899.4199536899</v>
       </c>
       <c r="AE26" t="n">
-        <v>701266.452300492</v>
+        <v>818072.3638414199</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.104846958646449e-06</v>
+        <v>2.044256138371863e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13.75651041666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>634338.5663265795</v>
+        <v>739996.685608168</v>
       </c>
     </row>
     <row r="27">
@@ -9277,28 +9277,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>510.4764442591064</v>
+        <v>595.8456485548536</v>
       </c>
       <c r="AB27" t="n">
-        <v>698.4563916666046</v>
+        <v>815.2623032075327</v>
       </c>
       <c r="AC27" t="n">
-        <v>631.7966939356457</v>
+        <v>737.4548132172341</v>
       </c>
       <c r="AD27" t="n">
-        <v>510476.4442591064</v>
+        <v>595845.6485548536</v>
       </c>
       <c r="AE27" t="n">
-        <v>698456.3916666047</v>
+        <v>815262.3032075327</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.107904696246962e-06</v>
+        <v>2.049913753492637e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>631796.6939356457</v>
+        <v>737454.8132172341</v>
       </c>
     </row>
     <row r="28">
@@ -9383,28 +9383,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>512.3695151933697</v>
+        <v>597.7387194891169</v>
       </c>
       <c r="AB28" t="n">
-        <v>701.0465748352589</v>
+        <v>817.852486376187</v>
       </c>
       <c r="AC28" t="n">
-        <v>634.1396736580285</v>
+        <v>739.7977929396168</v>
       </c>
       <c r="AD28" t="n">
-        <v>512369.5151933697</v>
+        <v>597738.7194891169</v>
       </c>
       <c r="AE28" t="n">
-        <v>701046.5748352589</v>
+        <v>817852.4863761871</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.107787988704958e-06</v>
+        <v>2.04969781398421e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>634139.6736580285</v>
+        <v>739797.7929396168</v>
       </c>
     </row>
   </sheetData>
@@ -9680,28 +9680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>863.8417677236382</v>
+        <v>981.3936377047901</v>
       </c>
       <c r="AB2" t="n">
-        <v>1181.946416608605</v>
+        <v>1342.786071139309</v>
       </c>
       <c r="AC2" t="n">
-        <v>1069.143109479693</v>
+        <v>1214.63245312186</v>
       </c>
       <c r="AD2" t="n">
-        <v>863841.7677236382</v>
+        <v>981393.6377047901</v>
       </c>
       <c r="AE2" t="n">
-        <v>1181946.416608605</v>
+        <v>1342786.071139309</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.853395910290621e-07</v>
+        <v>1.496978463844212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.01953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1069143.109479693</v>
+        <v>1214632.45312186</v>
       </c>
     </row>
     <row r="3">
@@ -9786,28 +9786,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>649.8859307804676</v>
+        <v>743.910376496185</v>
       </c>
       <c r="AB3" t="n">
-        <v>889.2026014376089</v>
+        <v>1017.850996131642</v>
       </c>
       <c r="AC3" t="n">
-        <v>804.338353160092</v>
+        <v>920.7087256236831</v>
       </c>
       <c r="AD3" t="n">
-        <v>649885.9307804676</v>
+        <v>743910.376496185</v>
       </c>
       <c r="AE3" t="n">
-        <v>889202.6014376089</v>
+        <v>1017850.996131642</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.624539035428417e-07</v>
+        <v>1.834585677972157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.33463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>804338.353160092</v>
+        <v>920708.7256236831</v>
       </c>
     </row>
     <row r="4">
@@ -9892,28 +9892,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>590.5865429384276</v>
+        <v>684.5256477995732</v>
       </c>
       <c r="AB4" t="n">
-        <v>808.0665628877734</v>
+        <v>936.5981904596092</v>
       </c>
       <c r="AC4" t="n">
-        <v>730.9458242543078</v>
+        <v>847.21057368596</v>
       </c>
       <c r="AD4" t="n">
-        <v>590586.5429384275</v>
+        <v>684525.6477995733</v>
       </c>
       <c r="AE4" t="n">
-        <v>808066.5628877735</v>
+        <v>936598.1904596093</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.032599381096015e-06</v>
+        <v>1.96829378390831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.22135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>730945.8242543078</v>
+        <v>847210.5736859599</v>
       </c>
     </row>
     <row r="5">
@@ -9998,28 +9998,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>557.3461540770987</v>
+        <v>651.3705102842649</v>
       </c>
       <c r="AB5" t="n">
-        <v>762.5855963852445</v>
+        <v>891.2338686097297</v>
       </c>
       <c r="AC5" t="n">
-        <v>689.8054973618426</v>
+        <v>806.1757590442072</v>
       </c>
       <c r="AD5" t="n">
-        <v>557346.1540770987</v>
+        <v>651370.5102842649</v>
       </c>
       <c r="AE5" t="n">
-        <v>762585.5963852445</v>
+        <v>891233.8686097297</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.066138819416621e-06</v>
+        <v>2.032225129569349e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>689805.4973618427</v>
+        <v>806175.7590442072</v>
       </c>
     </row>
     <row r="6">
@@ -10104,28 +10104,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>543.7599284976518</v>
+        <v>626.0206620806518</v>
       </c>
       <c r="AB6" t="n">
-        <v>743.9963231654751</v>
+        <v>856.5490879411732</v>
       </c>
       <c r="AC6" t="n">
-        <v>672.9903582879591</v>
+        <v>774.8012451622623</v>
       </c>
       <c r="AD6" t="n">
-        <v>543759.9284976518</v>
+        <v>626020.6620806518</v>
       </c>
       <c r="AE6" t="n">
-        <v>743996.3231654752</v>
+        <v>856549.0879411732</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.087725758119732e-06</v>
+        <v>2.073373166301507e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>672990.3582879591</v>
+        <v>774801.2451622622</v>
       </c>
     </row>
     <row r="7">
@@ -10210,28 +10210,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>532.9385616019133</v>
+        <v>615.1992951849134</v>
       </c>
       <c r="AB7" t="n">
-        <v>729.1900515737117</v>
+        <v>841.7428163494098</v>
       </c>
       <c r="AC7" t="n">
-        <v>659.5971764761811</v>
+        <v>761.4080633504841</v>
       </c>
       <c r="AD7" t="n">
-        <v>532938.5616019133</v>
+        <v>615199.2951849133</v>
       </c>
       <c r="AE7" t="n">
-        <v>729190.0515737117</v>
+        <v>841742.8163494099</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.103638277812517e-06</v>
+        <v>2.103704884653288e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>659597.176476181</v>
+        <v>761408.0633504841</v>
       </c>
     </row>
     <row r="8">
@@ -10316,28 +10316,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>524.7256136971769</v>
+        <v>606.9863472801769</v>
       </c>
       <c r="AB8" t="n">
-        <v>717.9527339207618</v>
+        <v>830.50549869646</v>
       </c>
       <c r="AC8" t="n">
-        <v>649.4323326483543</v>
+        <v>751.2432195226575</v>
       </c>
       <c r="AD8" t="n">
-        <v>524725.6136971769</v>
+        <v>606986.3472801769</v>
       </c>
       <c r="AE8" t="n">
-        <v>717952.7339207618</v>
+        <v>830505.49869646</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.11448004009182e-06</v>
+        <v>2.124370956792818e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.10807291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>649432.3326483543</v>
+        <v>751243.2195226575</v>
       </c>
     </row>
     <row r="9">
@@ -10422,28 +10422,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>518.4282260749194</v>
+        <v>600.6889596579194</v>
       </c>
       <c r="AB9" t="n">
-        <v>709.3363703548548</v>
+        <v>821.8891351305531</v>
       </c>
       <c r="AC9" t="n">
-        <v>641.6383027280352</v>
+        <v>743.4491896023383</v>
       </c>
       <c r="AD9" t="n">
-        <v>518428.2260749193</v>
+        <v>600688.9596579195</v>
       </c>
       <c r="AE9" t="n">
-        <v>709336.3703548549</v>
+        <v>821889.135130553</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.122617398417266e-06</v>
+        <v>2.139882017619146e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.00390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>641638.3027280353</v>
+        <v>743449.1896023382</v>
       </c>
     </row>
     <row r="10">
@@ -10528,28 +10528,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>500.0022489441079</v>
+        <v>593.9412642967026</v>
       </c>
       <c r="AB10" t="n">
-        <v>684.125135547739</v>
+        <v>812.6566406500265</v>
       </c>
       <c r="AC10" t="n">
-        <v>618.8331927867202</v>
+        <v>735.0978314371459</v>
       </c>
       <c r="AD10" t="n">
-        <v>500002.2489441079</v>
+        <v>593941.2642967026</v>
       </c>
       <c r="AE10" t="n">
-        <v>684125.135547739</v>
+        <v>812656.6406500265</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.128629867921824e-06</v>
+        <v>2.151342712413674e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.92578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>618833.1927867202</v>
+        <v>735097.8314371459</v>
       </c>
     </row>
     <row r="11">
@@ -10634,28 +10634,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>495.1974322891344</v>
+        <v>589.136447641729</v>
       </c>
       <c r="AB11" t="n">
-        <v>677.5509734268536</v>
+        <v>806.0824785291411</v>
       </c>
       <c r="AC11" t="n">
-        <v>612.8864594717578</v>
+        <v>729.1510981221833</v>
       </c>
       <c r="AD11" t="n">
-        <v>495197.4322891344</v>
+        <v>589136.447641729</v>
       </c>
       <c r="AE11" t="n">
-        <v>677550.9734268537</v>
+        <v>806082.4785291411</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.133893797046296e-06</v>
+        <v>2.161376573719725e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.8671875</v>
       </c>
       <c r="AH11" t="n">
-        <v>612886.4594717578</v>
+        <v>729151.0981221832</v>
       </c>
     </row>
     <row r="12">
@@ -10740,28 +10740,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>489.2323249155221</v>
+        <v>571.5783098445428</v>
       </c>
       <c r="AB12" t="n">
-        <v>669.389250356313</v>
+        <v>782.0586597846606</v>
       </c>
       <c r="AC12" t="n">
-        <v>605.5036797960194</v>
+        <v>707.4200789210347</v>
       </c>
       <c r="AD12" t="n">
-        <v>489232.3249155221</v>
+        <v>571578.3098445428</v>
       </c>
       <c r="AE12" t="n">
-        <v>669389.2503563131</v>
+        <v>782058.6597846606</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.139230165562389e-06</v>
+        <v>2.171548515685952e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>605503.6797960193</v>
+        <v>707420.0789210347</v>
       </c>
     </row>
     <row r="13">
@@ -10846,28 +10846,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>485.719622482601</v>
+        <v>568.0656074116216</v>
       </c>
       <c r="AB13" t="n">
-        <v>664.5830159180964</v>
+        <v>777.2524253464438</v>
       </c>
       <c r="AC13" t="n">
-        <v>601.1561456269935</v>
+        <v>703.072544752009</v>
       </c>
       <c r="AD13" t="n">
-        <v>485719.622482601</v>
+        <v>568065.6074116216</v>
       </c>
       <c r="AE13" t="n">
-        <v>664583.0159180964</v>
+        <v>777252.4253464438</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.142031155371741e-06</v>
+        <v>2.176887634546053e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.76302083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>601156.1456269935</v>
+        <v>703072.544752009</v>
       </c>
     </row>
     <row r="14">
@@ -10952,28 +10952,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>480.3942282768573</v>
+        <v>562.740213205878</v>
       </c>
       <c r="AB14" t="n">
-        <v>657.2965766259867</v>
+        <v>769.9659860543341</v>
       </c>
       <c r="AC14" t="n">
-        <v>594.5651138743411</v>
+        <v>696.4815129993564</v>
       </c>
       <c r="AD14" t="n">
-        <v>480394.2282768573</v>
+        <v>562740.213205878</v>
       </c>
       <c r="AE14" t="n">
-        <v>657296.5766259867</v>
+        <v>769965.9860543341</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.14480799871722e-06</v>
+        <v>2.18218072651943e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.73046875</v>
       </c>
       <c r="AH14" t="n">
-        <v>594565.1138743411</v>
+        <v>696481.5129993564</v>
       </c>
     </row>
     <row r="15">
@@ -11058,28 +11058,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>476.0979481904321</v>
+        <v>558.4439331194528</v>
       </c>
       <c r="AB15" t="n">
-        <v>651.4182166732393</v>
+        <v>764.0876261015867</v>
       </c>
       <c r="AC15" t="n">
-        <v>589.2477763451539</v>
+        <v>691.1641754701692</v>
       </c>
       <c r="AD15" t="n">
-        <v>476097.9481904322</v>
+        <v>558443.9331194528</v>
       </c>
       <c r="AE15" t="n">
-        <v>651418.2166732393</v>
+        <v>764087.6261015867</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.147898746093057e-06</v>
+        <v>2.188072168020231e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>589247.7763451538</v>
+        <v>691164.1754701692</v>
       </c>
     </row>
     <row r="16">
@@ -11164,28 +11164,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>470.9448190860393</v>
+        <v>553.29080401506</v>
       </c>
       <c r="AB16" t="n">
-        <v>644.3674780925978</v>
+        <v>757.0368875209454</v>
       </c>
       <c r="AC16" t="n">
-        <v>582.8699503588751</v>
+        <v>684.7863494838905</v>
       </c>
       <c r="AD16" t="n">
-        <v>470944.8190860393</v>
+        <v>553290.80401506</v>
       </c>
       <c r="AE16" t="n">
-        <v>644367.4780925978</v>
+        <v>757036.8875209454</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.150603150046914e-06</v>
+        <v>2.193227179333432e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.66536458333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>582869.9503588751</v>
+        <v>684786.3494838905</v>
       </c>
     </row>
     <row r="17">
@@ -11270,28 +11270,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>467.0407951030653</v>
+        <v>549.386780032086</v>
       </c>
       <c r="AB17" t="n">
-        <v>639.0258202457104</v>
+        <v>751.6952296740578</v>
       </c>
       <c r="AC17" t="n">
-        <v>578.0380928398306</v>
+        <v>679.9544919648459</v>
       </c>
       <c r="AD17" t="n">
-        <v>467040.7951030653</v>
+        <v>549386.780032086</v>
       </c>
       <c r="AE17" t="n">
-        <v>639025.8202457104</v>
+        <v>751695.2296740578</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.150844614685651e-06</v>
+        <v>2.193687448200682e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.65885416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>578038.0928398306</v>
+        <v>679954.4919648459</v>
       </c>
     </row>
     <row r="18">
@@ -11376,28 +11376,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>464.8855888482358</v>
+        <v>547.2315737772565</v>
       </c>
       <c r="AB18" t="n">
-        <v>636.0769719668631</v>
+        <v>748.7463813952105</v>
       </c>
       <c r="AC18" t="n">
-        <v>575.370678501982</v>
+        <v>677.2870776269974</v>
       </c>
       <c r="AD18" t="n">
-        <v>464885.5888482358</v>
+        <v>547231.5737772564</v>
       </c>
       <c r="AE18" t="n">
-        <v>636076.971966863</v>
+        <v>748746.3813952105</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.15304194289816e-06</v>
+        <v>2.197875894892658e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.6328125</v>
       </c>
       <c r="AH18" t="n">
-        <v>575370.678501982</v>
+        <v>677287.0776269974</v>
       </c>
     </row>
     <row r="19">
@@ -11482,28 +11482,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>464.7582422379182</v>
+        <v>547.1042271669388</v>
       </c>
       <c r="AB19" t="n">
-        <v>635.9027307164904</v>
+        <v>748.5721401448379</v>
       </c>
       <c r="AC19" t="n">
-        <v>575.2130665919958</v>
+        <v>677.1294657170112</v>
       </c>
       <c r="AD19" t="n">
-        <v>464758.2422379182</v>
+        <v>547104.2271669388</v>
       </c>
       <c r="AE19" t="n">
-        <v>635902.7307164904</v>
+        <v>748572.1401448379</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.152872917651044e-06</v>
+        <v>2.197553706685582e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.6328125</v>
       </c>
       <c r="AH19" t="n">
-        <v>575213.0665919958</v>
+        <v>677129.4657170111</v>
       </c>
     </row>
   </sheetData>
@@ -11779,28 +11779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.4458754491147</v>
+        <v>544.1534153786417</v>
       </c>
       <c r="AB2" t="n">
-        <v>630.0023602278537</v>
+        <v>744.5347092754615</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.8758191815726</v>
+        <v>673.4773615832381</v>
       </c>
       <c r="AD2" t="n">
-        <v>460445.8754491147</v>
+        <v>544153.4153786417</v>
       </c>
       <c r="AE2" t="n">
-        <v>630002.3602278538</v>
+        <v>744534.7092754615</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.11046738171923e-06</v>
+        <v>2.365004910489755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.79427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>569875.8191815726</v>
+        <v>673477.3615832381</v>
       </c>
     </row>
     <row r="3">
@@ -11885,28 +11885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.5677063774086</v>
+        <v>472.7265524697242</v>
       </c>
       <c r="AB3" t="n">
-        <v>546.7061635486772</v>
+        <v>646.8053243126847</v>
       </c>
       <c r="AC3" t="n">
-        <v>494.5292946065106</v>
+        <v>585.0751319572555</v>
       </c>
       <c r="AD3" t="n">
-        <v>399567.7063774086</v>
+        <v>472726.5524697242</v>
       </c>
       <c r="AE3" t="n">
-        <v>546706.1635486772</v>
+        <v>646805.3243126847</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.226434082619885e-06</v>
+        <v>2.611983634582245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.30338541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>494529.2946065105</v>
+        <v>585075.1319572555</v>
       </c>
     </row>
     <row r="4">
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>369.7369408685638</v>
+        <v>442.9810383069</v>
       </c>
       <c r="AB4" t="n">
-        <v>505.8903941389831</v>
+        <v>606.1061995556399</v>
       </c>
       <c r="AC4" t="n">
-        <v>457.6089249439854</v>
+        <v>548.2602745454427</v>
       </c>
       <c r="AD4" t="n">
-        <v>369736.9408685638</v>
+        <v>442981.0383069</v>
       </c>
       <c r="AE4" t="n">
-        <v>505890.3941389832</v>
+        <v>606106.1995556399</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267227201849343e-06</v>
+        <v>2.698862302861992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.84114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>457608.9249439854</v>
+        <v>548260.2745454427</v>
       </c>
     </row>
     <row r="5">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>356.1258376765317</v>
+        <v>429.3699351148679</v>
       </c>
       <c r="AB5" t="n">
-        <v>487.2670822721516</v>
+        <v>587.4828876888084</v>
       </c>
       <c r="AC5" t="n">
-        <v>440.7629958237419</v>
+        <v>531.4143454251993</v>
       </c>
       <c r="AD5" t="n">
-        <v>356125.8376765316</v>
+        <v>429369.9351148679</v>
       </c>
       <c r="AE5" t="n">
-        <v>487267.0822721517</v>
+        <v>587482.8876888084</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.286680723701173e-06</v>
+        <v>2.740293213362638e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.6328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>440762.9958237419</v>
+        <v>531414.3454251993</v>
       </c>
     </row>
     <row r="6">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>347.3193431047436</v>
+        <v>420.5634405430799</v>
       </c>
       <c r="AB6" t="n">
-        <v>475.2176478839108</v>
+        <v>575.4334533005675</v>
       </c>
       <c r="AC6" t="n">
-        <v>429.8635425420273</v>
+        <v>520.5148921434846</v>
       </c>
       <c r="AD6" t="n">
-        <v>347319.3431047436</v>
+        <v>420563.4405430799</v>
       </c>
       <c r="AE6" t="n">
-        <v>475217.6478839109</v>
+        <v>575433.4533005676</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.298562999513716e-06</v>
+        <v>2.76559935121691e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.50911458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>429863.5425420274</v>
+        <v>520514.8921434847</v>
       </c>
     </row>
     <row r="7">
@@ -12309,28 +12309,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>347.3300535542407</v>
+        <v>420.4035587919847</v>
       </c>
       <c r="AB7" t="n">
-        <v>475.2323023934243</v>
+        <v>575.2146960352341</v>
       </c>
       <c r="AC7" t="n">
-        <v>429.8767984457206</v>
+        <v>520.3170127645269</v>
       </c>
       <c r="AD7" t="n">
-        <v>347330.0535542407</v>
+        <v>420403.5587919847</v>
       </c>
       <c r="AE7" t="n">
-        <v>475232.3023934243</v>
+        <v>575214.696035234</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.300260467486937e-06</v>
+        <v>2.76921451376752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>429876.7984457206</v>
+        <v>520317.0127645269</v>
       </c>
     </row>
   </sheetData>
@@ -12606,28 +12606,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>590.9122038450113</v>
+        <v>678.6866617231651</v>
       </c>
       <c r="AB2" t="n">
-        <v>808.5121465073065</v>
+        <v>928.6090321119824</v>
       </c>
       <c r="AC2" t="n">
-        <v>731.348881998573</v>
+        <v>839.9838893981762</v>
       </c>
       <c r="AD2" t="n">
-        <v>590912.2038450113</v>
+        <v>678686.6617231651</v>
       </c>
       <c r="AE2" t="n">
-        <v>808512.1465073065</v>
+        <v>928609.0321119823</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.809212313757701e-07</v>
+        <v>1.991609235220678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>731348.881998573</v>
+        <v>839983.8893981762</v>
       </c>
     </row>
     <row r="3">
@@ -12712,28 +12712,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.2409986203802</v>
+        <v>564.9300261354114</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.9821886993201</v>
+        <v>772.9621847122498</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.6624850761141</v>
+        <v>699.1917586625518</v>
       </c>
       <c r="AD3" t="n">
-        <v>477240.9986203802</v>
+        <v>564930.0261354113</v>
       </c>
       <c r="AE3" t="n">
-        <v>652982.1886993201</v>
+        <v>772962.1847122498</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.123542100465302e-06</v>
+        <v>2.28117890802257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.93489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>590662.4850761141</v>
+        <v>699191.7586625519</v>
       </c>
     </row>
     <row r="4">
@@ -12818,28 +12818,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.7255245575141</v>
+        <v>528.442845534896</v>
       </c>
       <c r="AB4" t="n">
-        <v>618.0707914232365</v>
+        <v>723.0388145138237</v>
       </c>
       <c r="AC4" t="n">
-        <v>559.0829825576061</v>
+        <v>654.0330048479733</v>
       </c>
       <c r="AD4" t="n">
-        <v>451725.5245575141</v>
+        <v>528442.845534896</v>
       </c>
       <c r="AE4" t="n">
-        <v>618070.7914232365</v>
+        <v>723038.8145138237</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174166967064225e-06</v>
+        <v>2.383964889837664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.29036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>559082.9825576061</v>
+        <v>654033.0048479734</v>
       </c>
     </row>
     <row r="5">
@@ -12924,28 +12924,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>425.709765015546</v>
+        <v>513.3134516760055</v>
       </c>
       <c r="AB5" t="n">
-        <v>582.4748814836076</v>
+        <v>702.3381103743399</v>
       </c>
       <c r="AC5" t="n">
-        <v>526.8842963034421</v>
+        <v>635.3079468579411</v>
       </c>
       <c r="AD5" t="n">
-        <v>425709.765015546</v>
+        <v>513313.4516760055</v>
       </c>
       <c r="AE5" t="n">
-        <v>582474.8814836077</v>
+        <v>702338.1103743399</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.200665115161828e-06</v>
+        <v>2.437765291724588e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.97786458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>526884.2963034421</v>
+        <v>635307.9468579411</v>
       </c>
     </row>
     <row r="6">
@@ -13030,28 +13030,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>415.4797439303789</v>
+        <v>492.2823162537815</v>
       </c>
       <c r="AB6" t="n">
-        <v>568.4777153182042</v>
+        <v>673.5623830614408</v>
       </c>
       <c r="AC6" t="n">
-        <v>514.2230000317186</v>
+        <v>609.2785345727981</v>
       </c>
       <c r="AD6" t="n">
-        <v>415479.7439303789</v>
+        <v>492282.3162537814</v>
       </c>
       <c r="AE6" t="n">
-        <v>568477.7153182043</v>
+        <v>673562.3830614408</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.216388724441535e-06</v>
+        <v>2.469689654711964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.79557291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>514223.0000317186</v>
+        <v>609278.5345727981</v>
       </c>
     </row>
     <row r="7">
@@ -13136,28 +13136,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>406.2507454968579</v>
+        <v>483.0533178202603</v>
       </c>
       <c r="AB7" t="n">
-        <v>555.8501925067856</v>
+        <v>660.9348602500218</v>
       </c>
       <c r="AC7" t="n">
-        <v>502.800630274582</v>
+        <v>597.8561648156615</v>
       </c>
       <c r="AD7" t="n">
-        <v>406250.7454968579</v>
+        <v>483053.3178202603</v>
       </c>
       <c r="AE7" t="n">
-        <v>555850.1925067855</v>
+        <v>660934.8602500218</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226544629451706e-06</v>
+        <v>2.490309653100532e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.68489583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>502800.630274582</v>
+        <v>597856.1648156615</v>
       </c>
     </row>
     <row r="8">
@@ -13242,28 +13242,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>397.103211611052</v>
+        <v>473.9057839344545</v>
       </c>
       <c r="AB8" t="n">
-        <v>543.3341330835128</v>
+        <v>648.4188008267491</v>
       </c>
       <c r="AC8" t="n">
-        <v>491.4790859962667</v>
+        <v>586.5346205373461</v>
       </c>
       <c r="AD8" t="n">
-        <v>397103.211611052</v>
+        <v>473905.7839344544</v>
       </c>
       <c r="AE8" t="n">
-        <v>543334.1330835128</v>
+        <v>648418.8008267492</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.236803640096497e-06</v>
+        <v>2.511138991574263e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>491479.0859962667</v>
+        <v>586534.6205373461</v>
       </c>
     </row>
     <row r="9">
@@ -13348,28 +13348,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>390.9076944386393</v>
+        <v>467.7102667620417</v>
       </c>
       <c r="AB9" t="n">
-        <v>534.8571531612904</v>
+        <v>639.9418209045268</v>
       </c>
       <c r="AC9" t="n">
-        <v>483.8111371403052</v>
+        <v>578.8666716813848</v>
       </c>
       <c r="AD9" t="n">
-        <v>390907.6944386393</v>
+        <v>467710.2667620417</v>
       </c>
       <c r="AE9" t="n">
-        <v>534857.1531612905</v>
+        <v>639941.8209045269</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.241520722880409e-06</v>
+        <v>2.520716300470476e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>483811.1371403052</v>
+        <v>578866.6716813848</v>
       </c>
     </row>
     <row r="10">
@@ -13454,28 +13454,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>388.168870497532</v>
+        <v>464.8008506203423</v>
       </c>
       <c r="AB10" t="n">
-        <v>531.1097734166829</v>
+        <v>635.9610293850722</v>
       </c>
       <c r="AC10" t="n">
-        <v>480.4214020590424</v>
+        <v>575.265801317471</v>
       </c>
       <c r="AD10" t="n">
-        <v>388168.870497532</v>
+        <v>464800.8506203422</v>
       </c>
       <c r="AE10" t="n">
-        <v>531109.7734166828</v>
+        <v>635961.0293850722</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.243299295077622e-06</v>
+        <v>2.52432741693954e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.49609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>480421.4020590424</v>
+        <v>575265.801317471</v>
       </c>
     </row>
     <row r="11">
@@ -13560,28 +13560,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>389.7097533922162</v>
+        <v>466.5123257156187</v>
       </c>
       <c r="AB11" t="n">
-        <v>533.2180773721453</v>
+        <v>638.3027451153818</v>
       </c>
       <c r="AC11" t="n">
-        <v>482.3284924440188</v>
+        <v>577.3840269850983</v>
       </c>
       <c r="AD11" t="n">
-        <v>389709.7533922162</v>
+        <v>466512.3257156187</v>
       </c>
       <c r="AE11" t="n">
-        <v>533218.0773721454</v>
+        <v>638302.7451153818</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.24314463662569e-06</v>
+        <v>2.524013406811795e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.50260416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>482328.4924440188</v>
+        <v>577384.0269850984</v>
       </c>
     </row>
   </sheetData>
@@ -13857,28 +13857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.7931233434941</v>
+        <v>457.0796888648704</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.5449742979833</v>
+        <v>625.3965952376197</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.342085522899</v>
+        <v>565.7096219377748</v>
       </c>
       <c r="AD2" t="n">
-        <v>376793.1233434941</v>
+        <v>457079.6888648704</v>
       </c>
       <c r="AE2" t="n">
-        <v>515544.9742979834</v>
+        <v>625396.5952376197</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.215913002999942e-06</v>
+        <v>2.707600760639497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.98046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>466342.085522899</v>
+        <v>565709.6219377748</v>
       </c>
     </row>
     <row r="3">
@@ -13963,28 +13963,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>330.5782749015692</v>
+        <v>410.7794995683739</v>
       </c>
       <c r="AB3" t="n">
-        <v>452.3117798045237</v>
+        <v>562.0466336219625</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.1437783635492</v>
+        <v>508.4056917464863</v>
       </c>
       <c r="AD3" t="n">
-        <v>330578.2749015692</v>
+        <v>410779.4995683739</v>
       </c>
       <c r="AE3" t="n">
-        <v>452311.7798045237</v>
+        <v>562046.6336219625</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.311168989334245e-06</v>
+        <v>2.9197172364218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.89322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>409143.7783635493</v>
+        <v>508405.6917464863</v>
       </c>
     </row>
     <row r="4">
@@ -14069,28 +14069,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.0092960393535</v>
+        <v>384.3347141183079</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.6413719534822</v>
+        <v>525.863711507587</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.6370024196938</v>
+        <v>475.6760169356566</v>
       </c>
       <c r="AD4" t="n">
-        <v>314009.2960393535</v>
+        <v>384334.7141183079</v>
       </c>
       <c r="AE4" t="n">
-        <v>429641.3719534822</v>
+        <v>525863.711507587</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.342650477179748e-06</v>
+        <v>2.989820360762309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>388637.0024196938</v>
+        <v>475676.0169356566</v>
       </c>
     </row>
     <row r="5">
@@ -14175,28 +14175,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.8663016862474</v>
+        <v>385.1917197652017</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.813964887983</v>
+        <v>527.0363044420878</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.6976847302704</v>
+        <v>476.7366992462333</v>
       </c>
       <c r="AD5" t="n">
-        <v>314866.3016862473</v>
+        <v>385191.7197652017</v>
       </c>
       <c r="AE5" t="n">
-        <v>430813.964887983</v>
+        <v>527036.3044420879</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.344693275946611e-06</v>
+        <v>2.994369274608404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.54817708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>389697.6847302704</v>
+        <v>476736.6992462333</v>
       </c>
     </row>
   </sheetData>
@@ -14472,28 +14472,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>910.2888307841255</v>
+        <v>1040.853023533064</v>
       </c>
       <c r="AB2" t="n">
-        <v>1245.497337387768</v>
+        <v>1424.141025992523</v>
       </c>
       <c r="AC2" t="n">
-        <v>1126.62881957397</v>
+        <v>1288.22300526628</v>
       </c>
       <c r="AD2" t="n">
-        <v>910288.8307841255</v>
+        <v>1040853.023533064</v>
       </c>
       <c r="AE2" t="n">
-        <v>1245497.337387768</v>
+        <v>1424141.025992523</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.567244101435901e-07</v>
+        <v>1.43078702185954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.5859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1126628.81957397</v>
+        <v>1288223.00526628</v>
       </c>
     </row>
     <row r="3">
@@ -14578,28 +14578,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.2517624922542</v>
+        <v>781.0614945860092</v>
       </c>
       <c r="AB3" t="n">
-        <v>922.5410073303048</v>
+        <v>1068.682794893796</v>
       </c>
       <c r="AC3" t="n">
-        <v>834.4949883851356</v>
+        <v>966.6892088548543</v>
       </c>
       <c r="AD3" t="n">
-        <v>674251.7624922543</v>
+        <v>781061.4945860092</v>
       </c>
       <c r="AE3" t="n">
-        <v>922541.0073303047</v>
+        <v>1068682.794893796</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.410059356951123e-07</v>
+        <v>1.779219835170748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.55598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>834494.9883851355</v>
+        <v>966689.2088548543</v>
       </c>
     </row>
     <row r="4">
@@ -14684,28 +14684,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.3591793062352</v>
+        <v>708.2064297263776</v>
       </c>
       <c r="AB4" t="n">
-        <v>839.2250886240191</v>
+        <v>968.9992810142292</v>
       </c>
       <c r="AC4" t="n">
-        <v>759.1306240255515</v>
+        <v>876.519349633263</v>
       </c>
       <c r="AD4" t="n">
-        <v>613359.1793062352</v>
+        <v>708206.4297263776</v>
       </c>
       <c r="AE4" t="n">
-        <v>839225.0886240192</v>
+        <v>968999.2810142292</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.009516260023642e-06</v>
+        <v>1.908756667336699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>759130.6240255515</v>
+        <v>876519.349633263</v>
       </c>
     </row>
     <row r="5">
@@ -14790,28 +14790,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>576.0329669871109</v>
+        <v>670.9654687532741</v>
       </c>
       <c r="AB5" t="n">
-        <v>788.1537182127255</v>
+        <v>918.0445552555846</v>
       </c>
       <c r="AC5" t="n">
-        <v>712.9334335271932</v>
+        <v>830.4276713856167</v>
       </c>
       <c r="AD5" t="n">
-        <v>576032.9669871109</v>
+        <v>670965.4687532741</v>
       </c>
       <c r="AE5" t="n">
-        <v>788153.7182127255</v>
+        <v>918044.5552555845</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.047994989161007e-06</v>
+        <v>1.981510850404407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.86328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>712933.4335271931</v>
+        <v>830427.6713856166</v>
       </c>
     </row>
     <row r="6">
@@ -14896,28 +14896,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>560.8327689826262</v>
+        <v>655.7652707487895</v>
       </c>
       <c r="AB6" t="n">
-        <v>767.3561367175811</v>
+        <v>897.2469737604403</v>
       </c>
       <c r="AC6" t="n">
-        <v>694.1207440203565</v>
+        <v>811.6149818787801</v>
       </c>
       <c r="AD6" t="n">
-        <v>560832.7689826263</v>
+        <v>655765.2707487894</v>
       </c>
       <c r="AE6" t="n">
-        <v>767356.1367175811</v>
+        <v>897246.9737604402</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.071398096807987e-06</v>
+        <v>2.025760596076185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.53776041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>694120.7440203564</v>
+        <v>811614.9818787801</v>
       </c>
     </row>
     <row r="7">
@@ -15002,28 +15002,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>551.0017887140297</v>
+        <v>634.057149661152</v>
       </c>
       <c r="AB7" t="n">
-        <v>753.9049558018477</v>
+        <v>867.5449647936232</v>
       </c>
       <c r="AC7" t="n">
-        <v>681.9533249323697</v>
+        <v>784.7476909607244</v>
       </c>
       <c r="AD7" t="n">
-        <v>551001.7887140297</v>
+        <v>634057.149661152</v>
       </c>
       <c r="AE7" t="n">
-        <v>753904.9558018476</v>
+        <v>867544.9647936232</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.086330140950845e-06</v>
+        <v>2.053993562639773e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.34244791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>681953.3249323698</v>
+        <v>784747.6909607244</v>
       </c>
     </row>
     <row r="8">
@@ -15108,28 +15108,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>542.6361330149799</v>
+        <v>625.6914939621021</v>
       </c>
       <c r="AB8" t="n">
-        <v>742.4586966077255</v>
+        <v>856.098705599501</v>
       </c>
       <c r="AC8" t="n">
-        <v>671.5994806508089</v>
+        <v>774.3938466791636</v>
       </c>
       <c r="AD8" t="n">
-        <v>542636.1330149799</v>
+        <v>625691.4939621021</v>
       </c>
       <c r="AE8" t="n">
-        <v>742458.6966077256</v>
+        <v>856098.705599501</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.097648821847594e-06</v>
+        <v>2.075394513256083e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.19270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>671599.4806508089</v>
+        <v>774393.8466791636</v>
       </c>
     </row>
     <row r="9">
@@ -15214,28 +15214,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>535.5167004895678</v>
+        <v>618.5720614366902</v>
       </c>
       <c r="AB9" t="n">
-        <v>732.7175749392611</v>
+        <v>846.3575839310365</v>
       </c>
       <c r="AC9" t="n">
-        <v>662.7880379626326</v>
+        <v>765.5824039909872</v>
       </c>
       <c r="AD9" t="n">
-        <v>535516.7004895678</v>
+        <v>618572.0614366902</v>
       </c>
       <c r="AE9" t="n">
-        <v>732717.5749392611</v>
+        <v>846357.5839310365</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.10600023756211e-06</v>
+        <v>2.091185066670654e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.08854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>662788.0379626326</v>
+        <v>765582.4039909872</v>
       </c>
     </row>
     <row r="10">
@@ -15320,28 +15320,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>530.9110195438069</v>
+        <v>613.9663804909293</v>
       </c>
       <c r="AB10" t="n">
-        <v>726.415879080968</v>
+        <v>840.0558880727433</v>
       </c>
       <c r="AC10" t="n">
-        <v>657.0877671125692</v>
+        <v>759.8821331409239</v>
       </c>
       <c r="AD10" t="n">
-        <v>530911.0195438069</v>
+        <v>613966.3804909292</v>
       </c>
       <c r="AE10" t="n">
-        <v>726415.879080968</v>
+        <v>840055.8880727433</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.110475064893383e-06</v>
+        <v>2.099645907611985e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.02994791666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>657087.7671125692</v>
+        <v>759882.1331409239</v>
       </c>
     </row>
     <row r="11">
@@ -15426,28 +15426,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>513.6352053825344</v>
+        <v>608.4823662941259</v>
       </c>
       <c r="AB11" t="n">
-        <v>702.7783479903843</v>
+        <v>832.5524179110457</v>
       </c>
       <c r="AC11" t="n">
-        <v>635.7061688137876</v>
+        <v>753.0947836402722</v>
       </c>
       <c r="AD11" t="n">
-        <v>513635.2053825344</v>
+        <v>608482.3662941259</v>
       </c>
       <c r="AE11" t="n">
-        <v>702778.3479903843</v>
+        <v>832552.4179110457</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.116002792773191e-06</v>
+        <v>2.11009753465716e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>635706.1688137876</v>
+        <v>753094.7836402722</v>
       </c>
     </row>
     <row r="12">
@@ -15532,28 +15532,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>507.8971680056642</v>
+        <v>602.7443289172559</v>
       </c>
       <c r="AB12" t="n">
-        <v>694.9273121070078</v>
+        <v>824.7013820276691</v>
       </c>
       <c r="AC12" t="n">
-        <v>628.6044247761224</v>
+        <v>745.993039602607</v>
       </c>
       <c r="AD12" t="n">
-        <v>507897.1680056643</v>
+        <v>602744.3289172559</v>
       </c>
       <c r="AE12" t="n">
-        <v>694927.3121070077</v>
+        <v>824701.3820276691</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.122033041369345e-06</v>
+        <v>2.121499309615533e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.88671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>628604.4247761224</v>
+        <v>745993.039602607</v>
       </c>
     </row>
     <row r="13">
@@ -15638,28 +15638,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>502.3816376768455</v>
+        <v>585.5222499699885</v>
       </c>
       <c r="AB13" t="n">
-        <v>687.3807201830931</v>
+        <v>801.1373738275178</v>
       </c>
       <c r="AC13" t="n">
-        <v>621.7780689937179</v>
+        <v>724.6779472727848</v>
       </c>
       <c r="AD13" t="n">
-        <v>502381.6376768455</v>
+        <v>585522.2499699885</v>
       </c>
       <c r="AE13" t="n">
-        <v>687380.7201830931</v>
+        <v>801137.3738275177</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.126172854889721e-06</v>
+        <v>2.129326718614732e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.83463541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>621778.0689937179</v>
+        <v>724677.9472727848</v>
       </c>
     </row>
     <row r="14">
@@ -15744,28 +15744,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>499.5561210942648</v>
+        <v>582.6967333874077</v>
       </c>
       <c r="AB14" t="n">
-        <v>683.514723741812</v>
+        <v>797.2713773862367</v>
       </c>
       <c r="AC14" t="n">
-        <v>618.2810378268326</v>
+        <v>721.1809161058995</v>
       </c>
       <c r="AD14" t="n">
-        <v>499556.1210942648</v>
+        <v>582696.7333874077</v>
       </c>
       <c r="AE14" t="n">
-        <v>683514.7237418119</v>
+        <v>797271.3773862367</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.127919712617972e-06</v>
+        <v>2.132629613741562e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.81510416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>618281.0378268326</v>
+        <v>721180.9161058995</v>
       </c>
     </row>
     <row r="15">
@@ -15850,28 +15850,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>495.6084535596196</v>
+        <v>578.7490658527624</v>
       </c>
       <c r="AB15" t="n">
-        <v>678.1133508621102</v>
+        <v>791.8700045065349</v>
       </c>
       <c r="AC15" t="n">
-        <v>613.3951643938951</v>
+        <v>716.295042672962</v>
       </c>
       <c r="AD15" t="n">
-        <v>495608.4535596196</v>
+        <v>578749.0658527624</v>
       </c>
       <c r="AE15" t="n">
-        <v>678113.3508621103</v>
+        <v>791870.0045065349</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.130671611778915e-06</v>
+        <v>2.137832804694788e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>613395.1643938951</v>
+        <v>716295.0426729621</v>
       </c>
     </row>
     <row r="16">
@@ -15956,28 +15956,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>491.417403257691</v>
+        <v>574.5580155508338</v>
       </c>
       <c r="AB16" t="n">
-        <v>672.3789709429215</v>
+        <v>786.1356245873461</v>
       </c>
       <c r="AC16" t="n">
-        <v>608.208065645941</v>
+        <v>711.1079439250079</v>
       </c>
       <c r="AD16" t="n">
-        <v>491417.403257691</v>
+        <v>574558.0155508338</v>
       </c>
       <c r="AE16" t="n">
-        <v>672378.9709429215</v>
+        <v>786135.6245873461</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.133902102098283e-06</v>
+        <v>2.143940898422487e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.73697916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>608208.0656459411</v>
+        <v>711107.9439250079</v>
       </c>
     </row>
     <row r="17">
@@ -16062,28 +16062,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>485.6525288183861</v>
+        <v>568.7931411115289</v>
       </c>
       <c r="AB17" t="n">
-        <v>664.4912154067538</v>
+        <v>778.2478690511786</v>
       </c>
       <c r="AC17" t="n">
-        <v>601.0731064276107</v>
+        <v>703.9729847066777</v>
       </c>
       <c r="AD17" t="n">
-        <v>485652.5288183861</v>
+        <v>568793.141111529</v>
       </c>
       <c r="AE17" t="n">
-        <v>664491.2154067538</v>
+        <v>778247.8690511786</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.136989015070124e-06</v>
+        <v>2.149777521317844e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.70442708333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>601073.1064276107</v>
+        <v>703972.9847066777</v>
       </c>
     </row>
     <row r="18">
@@ -16168,28 +16168,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>480.9276223702845</v>
+        <v>564.0682346634275</v>
       </c>
       <c r="AB18" t="n">
-        <v>658.0263899563004</v>
+        <v>771.783043600725</v>
       </c>
       <c r="AC18" t="n">
-        <v>595.2252748447091</v>
+        <v>698.1251531237759</v>
       </c>
       <c r="AD18" t="n">
-        <v>480927.6223702845</v>
+        <v>564068.2346634275</v>
       </c>
       <c r="AE18" t="n">
-        <v>658026.3899563004</v>
+        <v>771783.043600725</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.136510423911699e-06</v>
+        <v>2.14887261854337e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.7109375</v>
       </c>
       <c r="AH18" t="n">
-        <v>595225.2748447091</v>
+        <v>698125.153123776</v>
       </c>
     </row>
     <row r="19">
@@ -16274,28 +16274,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>479.6708733873253</v>
+        <v>562.8114856804682</v>
       </c>
       <c r="AB19" t="n">
-        <v>656.3068505539636</v>
+        <v>770.0635041983882</v>
       </c>
       <c r="AC19" t="n">
-        <v>593.6698458695424</v>
+        <v>696.5697241486095</v>
       </c>
       <c r="AD19" t="n">
-        <v>479670.8733873253</v>
+        <v>562811.4856804681</v>
       </c>
       <c r="AE19" t="n">
-        <v>656306.8505539636</v>
+        <v>770063.5041983882</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.139286252630564e-06</v>
+        <v>2.154121054635319e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH19" t="n">
-        <v>593669.8458695424</v>
+        <v>696569.7241486094</v>
       </c>
     </row>
     <row r="20">
@@ -16380,28 +16380,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>475.2223679781518</v>
+        <v>558.3629802712946</v>
       </c>
       <c r="AB20" t="n">
-        <v>650.2202091989245</v>
+        <v>763.9768628433491</v>
       </c>
       <c r="AC20" t="n">
-        <v>588.1641050227736</v>
+        <v>691.0639833018405</v>
       </c>
       <c r="AD20" t="n">
-        <v>475222.3679781518</v>
+        <v>558362.9802712946</v>
       </c>
       <c r="AE20" t="n">
-        <v>650220.2091989245</v>
+        <v>763976.8628433491</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.139166604840958e-06</v>
+        <v>2.153894828941701e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>588164.1050227736</v>
+        <v>691063.9833018405</v>
       </c>
     </row>
     <row r="21">
@@ -16486,28 +16486,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>474.4220765662378</v>
+        <v>557.5626888593807</v>
       </c>
       <c r="AB21" t="n">
-        <v>649.1252151827787</v>
+        <v>762.8818688272033</v>
       </c>
       <c r="AC21" t="n">
-        <v>587.1736156986949</v>
+        <v>690.0734939777618</v>
       </c>
       <c r="AD21" t="n">
-        <v>474422.0765662378</v>
+        <v>557562.6888593808</v>
       </c>
       <c r="AE21" t="n">
-        <v>649125.2151827787</v>
+        <v>762881.8688272033</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.141942433559822e-06</v>
+        <v>2.15914326503365e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>587173.6156986949</v>
+        <v>690073.4939777618</v>
       </c>
     </row>
   </sheetData>
@@ -16783,28 +16783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.2254257399063</v>
+        <v>414.5367967637247</v>
       </c>
       <c r="AB2" t="n">
-        <v>460.0384607162484</v>
+        <v>567.1875334048951</v>
       </c>
       <c r="AC2" t="n">
-        <v>416.1330356935237</v>
+        <v>513.055951269434</v>
       </c>
       <c r="AD2" t="n">
-        <v>336225.4257399063</v>
+        <v>414536.7967637248</v>
       </c>
       <c r="AE2" t="n">
-        <v>460038.4607162484</v>
+        <v>567187.5334048951</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.282374312207427e-06</v>
+        <v>2.939928706892491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.53776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>416133.0356935237</v>
+        <v>513055.951269434</v>
       </c>
     </row>
     <row r="3">
@@ -16889,28 +16889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.5526302177864</v>
+        <v>364.1497531113777</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.3881475257849</v>
+        <v>498.2457573602737</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.7939102882528</v>
+        <v>450.6938815701208</v>
       </c>
       <c r="AD3" t="n">
-        <v>295552.6302177864</v>
+        <v>364149.7531113777</v>
       </c>
       <c r="AE3" t="n">
-        <v>404388.1475257849</v>
+        <v>498245.7573602737</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.365309527557316e-06</v>
+        <v>3.130063223857155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.65885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>365793.9102882529</v>
+        <v>450693.8815701208</v>
       </c>
     </row>
     <row r="4">
@@ -16995,28 +16995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.7068092266951</v>
+        <v>363.3039321202864</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.2308579307853</v>
+        <v>497.088467765274</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.7470707879338</v>
+        <v>449.6470420698018</v>
       </c>
       <c r="AD4" t="n">
-        <v>294706.8092266951</v>
+        <v>363303.9321202865</v>
       </c>
       <c r="AE4" t="n">
-        <v>403230.8579307853</v>
+        <v>497088.467765274</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.368946534584055e-06</v>
+        <v>3.138401305229569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>364747.0707879338</v>
+        <v>449647.0420698018</v>
       </c>
     </row>
   </sheetData>
@@ -17292,28 +17292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>714.6879884135792</v>
+        <v>817.1603530674716</v>
       </c>
       <c r="AB2" t="n">
-        <v>977.8676355562465</v>
+        <v>1118.074845637371</v>
       </c>
       <c r="AC2" t="n">
-        <v>884.5413208646038</v>
+        <v>1011.367351597641</v>
       </c>
       <c r="AD2" t="n">
-        <v>714687.9884135792</v>
+        <v>817160.3530674716</v>
       </c>
       <c r="AE2" t="n">
-        <v>977867.6355562465</v>
+        <v>1118074.845637371</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.76837097148481e-07</v>
+        <v>1.718588592580052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.47005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>884541.3208646037</v>
+        <v>1011367.351597641</v>
       </c>
     </row>
     <row r="3">
@@ -17398,28 +17398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.3275008876529</v>
+        <v>653.4898262209089</v>
       </c>
       <c r="AB3" t="n">
-        <v>769.4012948529563</v>
+        <v>894.1336101718664</v>
       </c>
       <c r="AC3" t="n">
-        <v>695.9707151336888</v>
+        <v>808.7987533414663</v>
       </c>
       <c r="AD3" t="n">
-        <v>562327.500887653</v>
+        <v>653489.8262209089</v>
       </c>
       <c r="AE3" t="n">
-        <v>769401.2948529563</v>
+        <v>894133.6101718664</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.037899471015391e-06</v>
+        <v>2.034268619487791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.60546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>695970.7151336889</v>
+        <v>808798.7533414663</v>
       </c>
     </row>
     <row r="4">
@@ -17504,28 +17504,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>515.74100221908</v>
+        <v>606.8179866977642</v>
       </c>
       <c r="AB4" t="n">
-        <v>705.6595921233459</v>
+        <v>830.2751403200582</v>
       </c>
       <c r="AC4" t="n">
-        <v>638.3124310505508</v>
+        <v>751.0348462263895</v>
       </c>
       <c r="AD4" t="n">
-        <v>515741.0022190799</v>
+        <v>606817.9866977643</v>
       </c>
       <c r="AE4" t="n">
-        <v>705659.5921233458</v>
+        <v>830275.1403200582</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.098727012582367e-06</v>
+        <v>2.153489760326441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>638312.4310505508</v>
+        <v>751034.8462263895</v>
       </c>
     </row>
     <row r="5">
@@ -17610,28 +17610,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>498.0294399035265</v>
+        <v>577.7112232241049</v>
       </c>
       <c r="AB5" t="n">
-        <v>681.4258511842231</v>
+        <v>790.4499824356203</v>
       </c>
       <c r="AC5" t="n">
-        <v>616.391524334389</v>
+        <v>715.0105455154818</v>
       </c>
       <c r="AD5" t="n">
-        <v>498029.4399035265</v>
+        <v>577711.2232241048</v>
       </c>
       <c r="AE5" t="n">
-        <v>681425.8511842231</v>
+        <v>790449.9824356203</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.12972542435842e-06</v>
+        <v>2.214246219011496e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.3359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>616391.524334389</v>
+        <v>715010.5455154818</v>
       </c>
     </row>
     <row r="6">
@@ -17716,28 +17716,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>487.1311796801214</v>
+        <v>566.8129630006998</v>
       </c>
       <c r="AB6" t="n">
-        <v>666.5143707492523</v>
+        <v>775.5385020006495</v>
       </c>
       <c r="AC6" t="n">
-        <v>602.9031746637374</v>
+        <v>701.5221958448304</v>
       </c>
       <c r="AD6" t="n">
-        <v>487131.1796801214</v>
+        <v>566812.9630006999</v>
       </c>
       <c r="AE6" t="n">
-        <v>666514.3707492523</v>
+        <v>775538.5020006495</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.146592938952452e-06</v>
+        <v>2.247306314507858e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.12760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>602903.1746637374</v>
+        <v>701522.1958448305</v>
       </c>
     </row>
     <row r="7">
@@ -17822,28 +17822,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>466.04720269263</v>
+        <v>557.0388463167427</v>
       </c>
       <c r="AB7" t="n">
-        <v>637.6663432755493</v>
+        <v>762.1651243500639</v>
       </c>
       <c r="AC7" t="n">
-        <v>576.8083624436638</v>
+        <v>689.4251545875636</v>
       </c>
       <c r="AD7" t="n">
-        <v>466047.20269263</v>
+        <v>557038.8463167427</v>
       </c>
       <c r="AE7" t="n">
-        <v>637666.3432755492</v>
+        <v>762165.124350064</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.159355527428468e-06</v>
+        <v>2.272320811542716e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.97135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>576808.3624436638</v>
+        <v>689425.1545875636</v>
       </c>
     </row>
     <row r="8">
@@ -17928,28 +17928,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>458.9100081565192</v>
+        <v>538.6770428231182</v>
       </c>
       <c r="AB8" t="n">
-        <v>627.9009188404418</v>
+        <v>737.0416947444883</v>
       </c>
       <c r="AC8" t="n">
-        <v>567.9749364107838</v>
+        <v>666.699469842589</v>
       </c>
       <c r="AD8" t="n">
-        <v>458910.0081565192</v>
+        <v>538677.0428231182</v>
       </c>
       <c r="AE8" t="n">
-        <v>627900.9188404419</v>
+        <v>737041.6947444882</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.170227362056185e-06</v>
+        <v>2.293629457165002e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.84114583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>567974.9364107838</v>
+        <v>666699.469842589</v>
       </c>
     </row>
     <row r="9">
@@ -18034,28 +18034,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>450.2286285536073</v>
+        <v>529.9956632202063</v>
       </c>
       <c r="AB9" t="n">
-        <v>616.0226722723003</v>
+        <v>725.1634481763467</v>
       </c>
       <c r="AC9" t="n">
-        <v>557.2303330238819</v>
+        <v>655.9548664556872</v>
       </c>
       <c r="AD9" t="n">
-        <v>450228.6285536073</v>
+        <v>529995.6632202063</v>
       </c>
       <c r="AE9" t="n">
-        <v>616022.6722723002</v>
+        <v>725163.4481763467</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.177815255789489e-06</v>
+        <v>2.308501624018085e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>557230.3330238819</v>
+        <v>655954.8664556872</v>
       </c>
     </row>
     <row r="10">
@@ -18140,28 +18140,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>444.866090418108</v>
+        <v>524.6331250847071</v>
       </c>
       <c r="AB10" t="n">
-        <v>608.6854110168246</v>
+        <v>717.8261869208708</v>
       </c>
       <c r="AC10" t="n">
-        <v>550.5933296847178</v>
+        <v>649.317863116523</v>
       </c>
       <c r="AD10" t="n">
-        <v>444866.090418108</v>
+        <v>524633.125084707</v>
       </c>
       <c r="AE10" t="n">
-        <v>608685.4110168245</v>
+        <v>717826.1869208708</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.18301482887231e-06</v>
+        <v>2.318692715402657e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.69140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>550593.3296847178</v>
+        <v>649317.863116523</v>
       </c>
     </row>
     <row r="11">
@@ -18246,28 +18246,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>439.2013092440051</v>
+        <v>518.9683439106042</v>
       </c>
       <c r="AB11" t="n">
-        <v>600.9346075019095</v>
+        <v>710.0753834059559</v>
       </c>
       <c r="AC11" t="n">
-        <v>543.5822519789454</v>
+        <v>642.3067854107504</v>
       </c>
       <c r="AD11" t="n">
-        <v>439201.3092440051</v>
+        <v>518968.3439106041</v>
       </c>
       <c r="AE11" t="n">
-        <v>600934.6075019095</v>
+        <v>710075.3834059559</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.185801202964539e-06</v>
+        <v>2.32415397011592e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.65885416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>543582.2519789453</v>
+        <v>642306.7854107504</v>
       </c>
     </row>
     <row r="12">
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>432.4907916770323</v>
+        <v>512.2578263436312</v>
       </c>
       <c r="AB12" t="n">
-        <v>591.7529813196361</v>
+        <v>700.8937572236824</v>
       </c>
       <c r="AC12" t="n">
-        <v>535.2769073130148</v>
+        <v>634.00144074482</v>
       </c>
       <c r="AD12" t="n">
-        <v>432490.7916770323</v>
+        <v>512257.8263436312</v>
       </c>
       <c r="AE12" t="n">
-        <v>591752.9813196361</v>
+        <v>700893.7572236825</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.191150046088016e-06</v>
+        <v>2.334637628717274e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.60026041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>535276.9073130148</v>
+        <v>634001.4407448201</v>
       </c>
     </row>
     <row r="13">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>428.6045767384468</v>
+        <v>508.3716114050458</v>
       </c>
       <c r="AB13" t="n">
-        <v>586.4356905929606</v>
+        <v>695.5764664970069</v>
       </c>
       <c r="AC13" t="n">
-        <v>530.4670913504287</v>
+        <v>629.1916247822339</v>
       </c>
       <c r="AD13" t="n">
-        <v>428604.5767384468</v>
+        <v>508371.6114050458</v>
       </c>
       <c r="AE13" t="n">
-        <v>586435.6905929606</v>
+        <v>695576.4664970069</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.193687636779153e-06</v>
+        <v>2.339611271402567e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>530467.0913504288</v>
+        <v>629191.624782234</v>
       </c>
     </row>
     <row r="14">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>426.3777059083103</v>
+        <v>506.1447405749092</v>
       </c>
       <c r="AB14" t="n">
-        <v>583.3887876805603</v>
+        <v>692.5295635846066</v>
       </c>
       <c r="AC14" t="n">
-        <v>527.710980575633</v>
+        <v>626.4355140074382</v>
       </c>
       <c r="AD14" t="n">
-        <v>426377.7059083103</v>
+        <v>506144.7405749093</v>
       </c>
       <c r="AE14" t="n">
-        <v>583388.7876805603</v>
+        <v>692529.5635846066</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.193961298520354e-06</v>
+        <v>2.340147644633334e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>527710.980575633</v>
+        <v>626435.5140074382</v>
       </c>
     </row>
     <row r="15">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>427.1920662153899</v>
+        <v>506.9591008819889</v>
       </c>
       <c r="AB15" t="n">
-        <v>584.5030313797479</v>
+        <v>693.6438072837943</v>
       </c>
       <c r="AC15" t="n">
-        <v>528.7188824200209</v>
+        <v>627.4434158518261</v>
       </c>
       <c r="AD15" t="n">
-        <v>427192.0662153899</v>
+        <v>506959.1008819889</v>
       </c>
       <c r="AE15" t="n">
-        <v>584503.0313797479</v>
+        <v>693643.8072837943</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.193613001758826e-06</v>
+        <v>2.339464987794176e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>528718.8824200209</v>
+        <v>627443.4158518261</v>
       </c>
     </row>
   </sheetData>
@@ -18967,28 +18967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>809.456864974728</v>
+        <v>925.9156376347738</v>
       </c>
       <c r="AB2" t="n">
-        <v>1107.53459337497</v>
+        <v>1266.878623926887</v>
       </c>
       <c r="AC2" t="n">
-        <v>1001.833046217827</v>
+        <v>1145.96950613462</v>
       </c>
       <c r="AD2" t="n">
-        <v>809456.864974728</v>
+        <v>925915.6376347739</v>
       </c>
       <c r="AE2" t="n">
-        <v>1107534.59337497</v>
+        <v>1266878.623926887</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.135672619606967e-07</v>
+        <v>1.564248281366076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1001833.046217827</v>
+        <v>1145969.50613462</v>
       </c>
     </row>
     <row r="3">
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>623.6914242883709</v>
+        <v>716.7731910703869</v>
       </c>
       <c r="AB3" t="n">
-        <v>853.3621220350552</v>
+        <v>980.7207018239393</v>
       </c>
       <c r="AC3" t="n">
-        <v>771.9184388092893</v>
+        <v>887.1220944920117</v>
       </c>
       <c r="AD3" t="n">
-        <v>623691.4242883709</v>
+        <v>716773.1910703869</v>
       </c>
       <c r="AE3" t="n">
-        <v>853362.1220350552</v>
+        <v>980720.7018239393</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.875862181908444e-07</v>
+        <v>1.898835064703576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>771918.4388092894</v>
+        <v>887122.0944920117</v>
       </c>
     </row>
     <row r="4">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.8255951443487</v>
+        <v>651.3468255149318</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.6605182075397</v>
+        <v>891.2014620634297</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.2508126102214</v>
+        <v>806.1464453332032</v>
       </c>
       <c r="AD4" t="n">
-        <v>569825.5951443487</v>
+        <v>651346.8255149318</v>
       </c>
       <c r="AE4" t="n">
-        <v>779660.5182075397</v>
+        <v>891201.4620634298</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.053059662151368e-06</v>
+        <v>2.024721057145729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.07161458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>705250.8126102213</v>
+        <v>806146.4453332033</v>
       </c>
     </row>
     <row r="5">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>538.2185778072809</v>
+        <v>631.300255080746</v>
       </c>
       <c r="AB5" t="n">
-        <v>736.4144026837707</v>
+        <v>863.7728600031065</v>
       </c>
       <c r="AC5" t="n">
-        <v>666.1320456557364</v>
+        <v>781.3355905572325</v>
       </c>
       <c r="AD5" t="n">
-        <v>538218.5778072809</v>
+        <v>631300.2550807459</v>
       </c>
       <c r="AE5" t="n">
-        <v>736414.4026837707</v>
+        <v>863772.8600031065</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.085625753413937e-06</v>
+        <v>2.087335981160143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.61588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>666132.0456557365</v>
+        <v>781335.5905572325</v>
       </c>
     </row>
     <row r="6">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>525.9273586869642</v>
+        <v>607.3632482029757</v>
       </c>
       <c r="AB6" t="n">
-        <v>719.597014433036</v>
+        <v>831.0211911667285</v>
       </c>
       <c r="AC6" t="n">
-        <v>650.9196853362993</v>
+        <v>751.7096950273423</v>
       </c>
       <c r="AD6" t="n">
-        <v>525927.3586869643</v>
+        <v>607363.2482029757</v>
       </c>
       <c r="AE6" t="n">
-        <v>719597.014433036</v>
+        <v>831021.1911667285</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.105248285948643e-06</v>
+        <v>2.125064284926313e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.35546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>650919.6853362992</v>
+        <v>751709.6950273423</v>
       </c>
     </row>
     <row r="7">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>513.9872642421509</v>
+        <v>595.4231537581624</v>
       </c>
       <c r="AB7" t="n">
-        <v>703.2600504538524</v>
+        <v>814.6842271875448</v>
       </c>
       <c r="AC7" t="n">
-        <v>636.141898270216</v>
+        <v>736.9319079612592</v>
       </c>
       <c r="AD7" t="n">
-        <v>513987.2642421509</v>
+        <v>595423.1537581624</v>
       </c>
       <c r="AE7" t="n">
-        <v>703260.0504538524</v>
+        <v>814684.2271875448</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.1222138544507e-06</v>
+        <v>2.157684035760168e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>636141.898270216</v>
+        <v>736931.9079612591</v>
       </c>
     </row>
     <row r="8">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>507.1826309353815</v>
+        <v>588.6185204513931</v>
       </c>
       <c r="AB8" t="n">
-        <v>693.949650964296</v>
+        <v>805.3738276979884</v>
       </c>
       <c r="AC8" t="n">
-        <v>627.720070240715</v>
+        <v>728.5100799317581</v>
       </c>
       <c r="AD8" t="n">
-        <v>507182.6309353815</v>
+        <v>588618.5204513931</v>
       </c>
       <c r="AE8" t="n">
-        <v>693949.650964296</v>
+        <v>805373.8276979884</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.132354194245032e-06</v>
+        <v>2.177180898327531e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.01692708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>627720.0702407151</v>
+        <v>728510.0799317581</v>
       </c>
     </row>
     <row r="9">
@@ -19709,28 +19709,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>488.4100254599024</v>
+        <v>581.4063618787958</v>
       </c>
       <c r="AB9" t="n">
-        <v>668.2641439638426</v>
+        <v>795.5058341609805</v>
       </c>
       <c r="AC9" t="n">
-        <v>604.4859519785493</v>
+        <v>719.5838738481065</v>
       </c>
       <c r="AD9" t="n">
-        <v>488410.0254599024</v>
+        <v>581406.3618787958</v>
       </c>
       <c r="AE9" t="n">
-        <v>668264.1439638425</v>
+        <v>795505.8341609805</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.140276334709355e-06</v>
+        <v>2.192412822208283e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.91927083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>604485.9519785494</v>
+        <v>719583.8738481065</v>
       </c>
     </row>
     <row r="10">
@@ -19815,28 +19815,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>482.5672253867191</v>
+        <v>564.0883662487513</v>
       </c>
       <c r="AB10" t="n">
-        <v>660.2697671375663</v>
+        <v>771.8105885239079</v>
       </c>
       <c r="AC10" t="n">
-        <v>597.2545472563946</v>
+        <v>698.1500691981499</v>
       </c>
       <c r="AD10" t="n">
-        <v>482567.2253867192</v>
+        <v>564088.3662487513</v>
       </c>
       <c r="AE10" t="n">
-        <v>660269.7671375663</v>
+        <v>771810.5885239079</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.1458583967596e-06</v>
+        <v>2.203145470111951e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.84765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>597254.5472563946</v>
+        <v>698150.06919815</v>
       </c>
     </row>
     <row r="11">
@@ -19921,28 +19921,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>477.1180484909045</v>
+        <v>558.6391893529366</v>
       </c>
       <c r="AB11" t="n">
-        <v>652.8139629079947</v>
+        <v>764.3547842943364</v>
       </c>
       <c r="AC11" t="n">
-        <v>590.5103145182063</v>
+        <v>691.4058364599616</v>
       </c>
       <c r="AD11" t="n">
-        <v>477118.0484909045</v>
+        <v>558639.1893529366</v>
       </c>
       <c r="AE11" t="n">
-        <v>652813.9629079946</v>
+        <v>764354.7842943363</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.150757935939074e-06</v>
+        <v>2.21256582918897e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.7890625</v>
       </c>
       <c r="AH11" t="n">
-        <v>590510.3145182063</v>
+        <v>691405.8364599616</v>
       </c>
     </row>
     <row r="12">
@@ -20027,28 +20027,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>471.5486687022076</v>
+        <v>553.0698095642397</v>
       </c>
       <c r="AB12" t="n">
-        <v>645.1936917774042</v>
+        <v>756.7345131637459</v>
       </c>
       <c r="AC12" t="n">
-        <v>583.6173113692016</v>
+        <v>684.512833310957</v>
       </c>
       <c r="AD12" t="n">
-        <v>471548.6687022076</v>
+        <v>553069.8095642397</v>
       </c>
       <c r="AE12" t="n">
-        <v>645193.6917774042</v>
+        <v>756734.5131637459</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.154584939178762e-06</v>
+        <v>2.219924020109826e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.74348958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>583617.3113692016</v>
+        <v>684512.8333109571</v>
       </c>
     </row>
     <row r="13">
@@ -20133,28 +20133,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>465.327448555797</v>
+        <v>546.8485894178291</v>
       </c>
       <c r="AB13" t="n">
-        <v>636.6815439122229</v>
+        <v>748.2223652985646</v>
       </c>
       <c r="AC13" t="n">
-        <v>575.9175509493987</v>
+        <v>676.8130728911541</v>
       </c>
       <c r="AD13" t="n">
-        <v>465327.448555797</v>
+        <v>546848.5894178291</v>
       </c>
       <c r="AE13" t="n">
-        <v>636681.5439122228</v>
+        <v>748222.3652985645</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.159923243060874e-06</v>
+        <v>2.230187993432547e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.68489583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>575917.5509493987</v>
+        <v>676813.0728911541</v>
       </c>
     </row>
     <row r="14">
@@ -20239,28 +20239,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>459.8919755658051</v>
+        <v>541.4131164278372</v>
       </c>
       <c r="AB14" t="n">
-        <v>629.2444899711713</v>
+        <v>740.785311357513</v>
       </c>
       <c r="AC14" t="n">
-        <v>569.1902789985104</v>
+        <v>670.0858009402659</v>
       </c>
       <c r="AD14" t="n">
-        <v>459891.975565805</v>
+        <v>541413.1164278372</v>
       </c>
       <c r="AE14" t="n">
-        <v>629244.4899711714</v>
+        <v>740785.3113575131</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.16328710578111e-06</v>
+        <v>2.236655702649606e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>569190.2789985104</v>
+        <v>670085.8009402659</v>
       </c>
     </row>
     <row r="15">
@@ -20345,28 +20345,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>456.3576096579774</v>
+        <v>537.8787505200095</v>
       </c>
       <c r="AB15" t="n">
-        <v>624.4086146108624</v>
+        <v>735.9494359972041</v>
       </c>
       <c r="AC15" t="n">
-        <v>564.8159327953956</v>
+        <v>665.711454737151</v>
       </c>
       <c r="AD15" t="n">
-        <v>456357.6096579774</v>
+        <v>537878.7505200094</v>
       </c>
       <c r="AE15" t="n">
-        <v>624408.6146108625</v>
+        <v>735949.435997204</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.161946435856379e-06</v>
+        <v>2.234077992454402e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.65885416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>564815.9327953956</v>
+        <v>665711.454737151</v>
       </c>
     </row>
     <row r="16">
@@ -20451,28 +20451,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>454.5702221578539</v>
+        <v>536.0913630198859</v>
       </c>
       <c r="AB16" t="n">
-        <v>621.963032179222</v>
+        <v>733.5038535655636</v>
       </c>
       <c r="AC16" t="n">
-        <v>562.6037533186346</v>
+        <v>663.49927526039</v>
       </c>
       <c r="AD16" t="n">
-        <v>454570.2221578539</v>
+        <v>536091.3630198858</v>
       </c>
       <c r="AE16" t="n">
-        <v>621963.032179222</v>
+        <v>733503.8535655637</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.165017788774854e-06</v>
+        <v>2.239983292174324e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>562603.7533186346</v>
+        <v>663499.27526039</v>
       </c>
     </row>
     <row r="17">
@@ -20557,28 +20557,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>450.8290110879731</v>
+        <v>532.3501519500052</v>
       </c>
       <c r="AB17" t="n">
-        <v>616.8441421428276</v>
+        <v>728.3849635291693</v>
       </c>
       <c r="AC17" t="n">
-        <v>557.9734029629063</v>
+        <v>658.8689249046618</v>
       </c>
       <c r="AD17" t="n">
-        <v>450829.0110879731</v>
+        <v>532350.1519500052</v>
       </c>
       <c r="AE17" t="n">
-        <v>616844.1421428276</v>
+        <v>728384.9635291693</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.165090916225294e-06</v>
+        <v>2.240123894548607e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>557973.4029629063</v>
+        <v>658868.9249046617</v>
       </c>
     </row>
     <row r="18">
@@ -20663,28 +20663,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>450.874546155503</v>
+        <v>532.3956870175351</v>
       </c>
       <c r="AB18" t="n">
-        <v>616.9064452310876</v>
+        <v>728.4472666174291</v>
       </c>
       <c r="AC18" t="n">
-        <v>558.0297599318654</v>
+        <v>658.925281873621</v>
       </c>
       <c r="AD18" t="n">
-        <v>450874.546155503</v>
+        <v>532395.6870175351</v>
       </c>
       <c r="AE18" t="n">
-        <v>616906.4452310875</v>
+        <v>728447.2666174291</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.167674752807504e-06</v>
+        <v>2.245091845106637e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH18" t="n">
-        <v>558029.7599318655</v>
+        <v>658925.2818736209</v>
       </c>
     </row>
   </sheetData>
@@ -20960,28 +20960,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1017.33582193908</v>
+        <v>1150.357231772145</v>
       </c>
       <c r="AB2" t="n">
-        <v>1391.963753265922</v>
+        <v>1573.969514689946</v>
       </c>
       <c r="AC2" t="n">
-        <v>1259.11668628762</v>
+        <v>1423.752073288025</v>
       </c>
       <c r="AD2" t="n">
-        <v>1017335.82193908</v>
+        <v>1150357.231772145</v>
       </c>
       <c r="AE2" t="n">
-        <v>1391963.753265922</v>
+        <v>1573969.514689947</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.05160722752511e-07</v>
+        <v>1.313660942568596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.72526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1259116.68628762</v>
+        <v>1423752.073288026</v>
       </c>
     </row>
     <row r="3">
@@ -21066,28 +21066,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>740.6800437590385</v>
+        <v>837.4229767825459</v>
       </c>
       <c r="AB3" t="n">
-        <v>1013.431112368457</v>
+        <v>1145.799061328204</v>
       </c>
       <c r="AC3" t="n">
-        <v>916.7106693635097</v>
+        <v>1036.445607054122</v>
       </c>
       <c r="AD3" t="n">
-        <v>740680.0437590386</v>
+        <v>837422.9767825459</v>
       </c>
       <c r="AE3" t="n">
-        <v>1013431.112368457</v>
+        <v>1145799.061328204</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.960442082448577e-07</v>
+        <v>1.669262398211017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.09635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>916710.6693635097</v>
+        <v>1036445.607054122</v>
       </c>
     </row>
     <row r="4">
@@ -21172,28 +21172,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>655.7198441659435</v>
+        <v>752.4626876808999</v>
       </c>
       <c r="AB4" t="n">
-        <v>897.1848191057112</v>
+        <v>1029.55264559591</v>
       </c>
       <c r="AC4" t="n">
-        <v>811.5587591770636</v>
+        <v>931.2935860864494</v>
       </c>
       <c r="AD4" t="n">
-        <v>655719.8441659436</v>
+        <v>752462.6876808999</v>
       </c>
       <c r="AE4" t="n">
-        <v>897184.8191057112</v>
+        <v>1029552.64559591</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.714282446700368e-07</v>
+        <v>1.809697140461518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.76822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>811558.7591770636</v>
+        <v>931293.5860864494</v>
       </c>
     </row>
     <row r="5">
@@ -21278,28 +21278,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>625.8401572174588</v>
+        <v>710.4902348015968</v>
       </c>
       <c r="AB5" t="n">
-        <v>856.30211322404</v>
+        <v>972.1240838725126</v>
       </c>
       <c r="AC5" t="n">
-        <v>774.5778413655009</v>
+        <v>879.3459256924402</v>
       </c>
       <c r="AD5" t="n">
-        <v>625840.1572174588</v>
+        <v>710490.2348015967</v>
       </c>
       <c r="AE5" t="n">
-        <v>856302.11322404</v>
+        <v>972124.0838725127</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.013308264906248e-06</v>
+        <v>1.887716441711797e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>774577.8413655009</v>
+        <v>879345.9256924402</v>
       </c>
     </row>
     <row r="6">
@@ -21384,28 +21384,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>599.2031712947532</v>
+        <v>695.8606739551379</v>
       </c>
       <c r="AB6" t="n">
-        <v>819.8562139437126</v>
+        <v>952.1072733117142</v>
       </c>
       <c r="AC6" t="n">
-        <v>741.6102875603472</v>
+        <v>861.2394914377942</v>
       </c>
       <c r="AD6" t="n">
-        <v>599203.1712947532</v>
+        <v>695860.673955138</v>
       </c>
       <c r="AE6" t="n">
-        <v>819856.2139437126</v>
+        <v>952107.2733117142</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.034671780846966e-06</v>
+        <v>1.927515051563063e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.8046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>741610.2875603471</v>
+        <v>861239.4914377942</v>
       </c>
     </row>
     <row r="7">
@@ -21490,28 +21490,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>585.2797371441596</v>
+        <v>681.9372398045443</v>
       </c>
       <c r="AB7" t="n">
-        <v>800.8055570803079</v>
+        <v>933.0566164483095</v>
       </c>
       <c r="AC7" t="n">
-        <v>724.3777986502209</v>
+        <v>844.0070025276682</v>
       </c>
       <c r="AD7" t="n">
-        <v>585279.7371441596</v>
+        <v>681937.2398045444</v>
       </c>
       <c r="AE7" t="n">
-        <v>800805.557080308</v>
+        <v>933056.6164483095</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.054058936282156e-06</v>
+        <v>1.963631851692406e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>724377.798650221</v>
+        <v>844007.0025276681</v>
       </c>
     </row>
     <row r="8">
@@ -21596,28 +21596,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>576.8921036598455</v>
+        <v>661.4568403894117</v>
       </c>
       <c r="AB8" t="n">
-        <v>789.3292269107956</v>
+        <v>905.0344304370708</v>
       </c>
       <c r="AC8" t="n">
-        <v>713.9967533249564</v>
+        <v>818.6592146199569</v>
       </c>
       <c r="AD8" t="n">
-        <v>576892.1036598454</v>
+        <v>661456.8403894117</v>
       </c>
       <c r="AE8" t="n">
-        <v>789329.2269107956</v>
+        <v>905034.4304370708</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.065164200075129e-06</v>
+        <v>1.984320115844164e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.38151041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>713996.7533249564</v>
+        <v>818659.2146199569</v>
       </c>
     </row>
     <row r="9">
@@ -21702,28 +21702,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>571.1317033326941</v>
+        <v>655.6964400622604</v>
       </c>
       <c r="AB9" t="n">
-        <v>781.4475930522606</v>
+        <v>897.1527965785356</v>
       </c>
       <c r="AC9" t="n">
-        <v>706.8673315399374</v>
+        <v>811.5297928349378</v>
       </c>
       <c r="AD9" t="n">
-        <v>571131.7033326941</v>
+        <v>655696.4400622604</v>
       </c>
       <c r="AE9" t="n">
-        <v>781447.5930522606</v>
+        <v>897152.7965785356</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.072904945388451e-06</v>
+        <v>1.998740537255031e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.27734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>706867.3315399374</v>
+        <v>811529.7928349378</v>
       </c>
     </row>
     <row r="10">
@@ -21808,28 +21808,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>564.3414577547436</v>
+        <v>648.9061944843099</v>
       </c>
       <c r="AB10" t="n">
-        <v>772.156879488016</v>
+        <v>887.862083014291</v>
       </c>
       <c r="AC10" t="n">
-        <v>698.4633106386659</v>
+        <v>803.1257719336664</v>
       </c>
       <c r="AD10" t="n">
-        <v>564341.4577547436</v>
+        <v>648906.19448431</v>
       </c>
       <c r="AE10" t="n">
-        <v>772156.879488016</v>
+        <v>887862.083014291</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.081798567663331e-06</v>
+        <v>2.015308681003685e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.16015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>698463.3106386659</v>
+        <v>803125.7719336664</v>
       </c>
     </row>
     <row r="11">
@@ -21914,28 +21914,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>558.5191552284314</v>
+        <v>643.0838919579976</v>
       </c>
       <c r="AB11" t="n">
-        <v>764.1905483096566</v>
+        <v>879.8957518359314</v>
       </c>
       <c r="AC11" t="n">
-        <v>691.2572749271529</v>
+        <v>795.9197362221535</v>
       </c>
       <c r="AD11" t="n">
-        <v>558519.1552284313</v>
+        <v>643083.8919579976</v>
       </c>
       <c r="AE11" t="n">
-        <v>764190.5483096566</v>
+        <v>879895.7518359313</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.087704121078662e-06</v>
+        <v>2.026310279101337e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.08203125</v>
       </c>
       <c r="AH11" t="n">
-        <v>691257.2749271529</v>
+        <v>795919.7362221534</v>
       </c>
     </row>
     <row r="12">
@@ -22020,28 +22020,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>553.3727997421003</v>
+        <v>637.9375364716667</v>
       </c>
       <c r="AB12" t="n">
-        <v>757.1490776920782</v>
+        <v>872.8542812183532</v>
       </c>
       <c r="AC12" t="n">
-        <v>684.8878323825502</v>
+        <v>789.5502936775505</v>
       </c>
       <c r="AD12" t="n">
-        <v>553372.7997421003</v>
+        <v>637937.5364716667</v>
       </c>
       <c r="AE12" t="n">
-        <v>757149.0776920782</v>
+        <v>872854.2812183532</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.093515562088968e-06</v>
+        <v>2.037136552926516e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>684887.8323825502</v>
+        <v>789550.2936775505</v>
       </c>
     </row>
     <row r="13">
@@ -22126,28 +22126,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>538.1245600402369</v>
+        <v>634.6967218460501</v>
       </c>
       <c r="AB13" t="n">
-        <v>736.28576342713</v>
+        <v>868.4200556729338</v>
       </c>
       <c r="AC13" t="n">
-        <v>666.0156835492032</v>
+        <v>785.5392643947115</v>
       </c>
       <c r="AD13" t="n">
-        <v>538124.5600402369</v>
+        <v>634696.7218460501</v>
       </c>
       <c r="AE13" t="n">
-        <v>736285.7634271299</v>
+        <v>868420.0556729338</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.095586034999522e-06</v>
+        <v>2.040993686920912e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH13" t="n">
-        <v>666015.6835492032</v>
+        <v>785539.2643947115</v>
       </c>
     </row>
     <row r="14">
@@ -22232,28 +22232,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>532.9088576844262</v>
+        <v>629.4810194902393</v>
       </c>
       <c r="AB14" t="n">
-        <v>729.1494093633617</v>
+        <v>861.2837016091654</v>
       </c>
       <c r="AC14" t="n">
-        <v>659.560413101345</v>
+        <v>779.0839939468533</v>
       </c>
       <c r="AD14" t="n">
-        <v>532908.8576844261</v>
+        <v>629481.0194902393</v>
       </c>
       <c r="AE14" t="n">
-        <v>729149.4093633617</v>
+        <v>861283.7016091654</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.099915205630681e-06</v>
+        <v>2.049058603454649e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.92578125</v>
       </c>
       <c r="AH14" t="n">
-        <v>659560.4131013451</v>
+        <v>779083.9939468533</v>
       </c>
     </row>
     <row r="15">
@@ -22338,28 +22338,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>530.6742618070608</v>
+        <v>627.246423612874</v>
       </c>
       <c r="AB15" t="n">
-        <v>726.0919367005376</v>
+        <v>858.2262289463416</v>
       </c>
       <c r="AC15" t="n">
-        <v>656.7947413382714</v>
+        <v>776.3183221837796</v>
       </c>
       <c r="AD15" t="n">
-        <v>530674.2618070608</v>
+        <v>627246.423612874</v>
       </c>
       <c r="AE15" t="n">
-        <v>726091.9367005377</v>
+        <v>858226.2289463417</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.102126847148773e-06</v>
+        <v>2.053178723857754e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.89973958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>656794.7413382714</v>
+        <v>776318.3221837797</v>
       </c>
     </row>
     <row r="16">
@@ -22444,28 +22444,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>526.9353437834953</v>
+        <v>623.5075055893086</v>
       </c>
       <c r="AB16" t="n">
-        <v>720.9761841112739</v>
+        <v>853.1104763570779</v>
       </c>
       <c r="AC16" t="n">
-        <v>652.167228996123</v>
+        <v>771.6908098416312</v>
       </c>
       <c r="AD16" t="n">
-        <v>526935.3437834954</v>
+        <v>623507.5055893086</v>
       </c>
       <c r="AE16" t="n">
-        <v>720976.184111274</v>
+        <v>853110.4763570779</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.104032623350533e-06</v>
+        <v>2.056729040375322e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.87369791666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>652167.228996123</v>
+        <v>771690.8098416312</v>
       </c>
     </row>
     <row r="17">
@@ -22550,28 +22550,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>522.0260316255858</v>
+        <v>606.6760197011725</v>
       </c>
       <c r="AB17" t="n">
-        <v>714.2590466332554</v>
+        <v>830.0808948121795</v>
       </c>
       <c r="AC17" t="n">
-        <v>646.0911656914446</v>
+        <v>750.8591392371573</v>
       </c>
       <c r="AD17" t="n">
-        <v>522026.0316255857</v>
+        <v>606676.0197011726</v>
       </c>
       <c r="AE17" t="n">
-        <v>714259.0466332553</v>
+        <v>830080.8948121795</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.108008872462847e-06</v>
+        <v>2.064136490887286e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.82161458333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>646091.1656914447</v>
+        <v>750859.1392371573</v>
       </c>
     </row>
     <row r="18">
@@ -22656,28 +22656,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>516.5695241839352</v>
+        <v>601.2195122595219</v>
       </c>
       <c r="AB18" t="n">
-        <v>706.7932124274702</v>
+        <v>822.6150606063944</v>
       </c>
       <c r="AC18" t="n">
-        <v>639.3378602238956</v>
+        <v>744.1058337696082</v>
       </c>
       <c r="AD18" t="n">
-        <v>516569.5241839351</v>
+        <v>601219.512259522</v>
       </c>
       <c r="AE18" t="n">
-        <v>706793.2124274701</v>
+        <v>822615.0606063944</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.110902828917372e-06</v>
+        <v>2.069527712265817e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.7890625</v>
       </c>
       <c r="AH18" t="n">
-        <v>639337.8602238956</v>
+        <v>744105.8337696083</v>
       </c>
     </row>
     <row r="19">
@@ -22762,28 +22762,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>516.3735878580324</v>
+        <v>601.0235759336192</v>
       </c>
       <c r="AB19" t="n">
-        <v>706.5251237022692</v>
+        <v>822.3469718811936</v>
       </c>
       <c r="AC19" t="n">
-        <v>639.095357510363</v>
+        <v>743.8633310560756</v>
       </c>
       <c r="AD19" t="n">
-        <v>516373.5878580323</v>
+        <v>601023.5759336192</v>
       </c>
       <c r="AE19" t="n">
-        <v>706525.1237022692</v>
+        <v>822346.9718811936</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.110902828917372e-06</v>
+        <v>2.069527712265817e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.7890625</v>
       </c>
       <c r="AH19" t="n">
-        <v>639095.357510363</v>
+        <v>743863.3310560756</v>
       </c>
     </row>
     <row r="20">
@@ -22868,28 +22868,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>510.3500054138677</v>
+        <v>594.9999934894545</v>
       </c>
       <c r="AB20" t="n">
-        <v>698.2833924604607</v>
+        <v>814.1052406393851</v>
       </c>
       <c r="AC20" t="n">
-        <v>631.6402055309302</v>
+        <v>736.4081790766428</v>
       </c>
       <c r="AD20" t="n">
-        <v>510350.0054138676</v>
+        <v>594999.9934894545</v>
       </c>
       <c r="AE20" t="n">
-        <v>698283.3924604608</v>
+        <v>814105.2406393851</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.114055594485716e-06</v>
+        <v>2.075401075393647e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>631640.2055309302</v>
+        <v>736408.1790766428</v>
       </c>
     </row>
     <row r="21">
@@ -22974,28 +22974,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>509.7725770461652</v>
+        <v>594.422565121752</v>
       </c>
       <c r="AB21" t="n">
-        <v>697.4933294934286</v>
+        <v>813.3151776723529</v>
       </c>
       <c r="AC21" t="n">
-        <v>630.9255450646112</v>
+        <v>735.6935186103238</v>
       </c>
       <c r="AD21" t="n">
-        <v>509772.5770461652</v>
+        <v>594422.565121752</v>
       </c>
       <c r="AE21" t="n">
-        <v>697493.3294934286</v>
+        <v>813315.1776723529</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.114102650688229e-06</v>
+        <v>2.075488737529883e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>630925.5450646112</v>
+        <v>735693.5186103239</v>
       </c>
     </row>
     <row r="22">
@@ -23080,28 +23080,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>503.9752645908791</v>
+        <v>588.6252526664659</v>
       </c>
       <c r="AB22" t="n">
-        <v>689.5611908327312</v>
+        <v>805.3830390116556</v>
       </c>
       <c r="AC22" t="n">
-        <v>623.7504385848644</v>
+        <v>728.5184121305771</v>
       </c>
       <c r="AD22" t="n">
-        <v>503975.2645908791</v>
+        <v>588625.2526664659</v>
       </c>
       <c r="AE22" t="n">
-        <v>689561.1908327312</v>
+        <v>805383.0390116556</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.116408404611346e-06</v>
+        <v>2.079784182205461e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>623750.4385848644</v>
+        <v>728518.412130577</v>
       </c>
     </row>
     <row r="23">
@@ -23186,28 +23186,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>503.2691990011116</v>
+        <v>587.9191870766986</v>
       </c>
       <c r="AB23" t="n">
-        <v>688.595120743396</v>
+        <v>804.4169689223204</v>
       </c>
       <c r="AC23" t="n">
-        <v>622.8765688689675</v>
+        <v>727.6445424146801</v>
       </c>
       <c r="AD23" t="n">
-        <v>503269.1990011117</v>
+        <v>587919.1870766985</v>
       </c>
       <c r="AE23" t="n">
-        <v>688595.120743396</v>
+        <v>804416.9689223204</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.116714269927678e-06</v>
+        <v>2.080353986090996e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>622876.5688689675</v>
+        <v>727644.5424146801</v>
       </c>
     </row>
     <row r="24">
@@ -23292,28 +23292,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>501.4694249254782</v>
+        <v>586.1194130010649</v>
       </c>
       <c r="AB24" t="n">
-        <v>686.1325904526857</v>
+        <v>801.9544386316101</v>
       </c>
       <c r="AC24" t="n">
-        <v>620.6490590130195</v>
+        <v>725.4170325587322</v>
       </c>
       <c r="AD24" t="n">
-        <v>501469.4249254782</v>
+        <v>586119.4130010649</v>
       </c>
       <c r="AE24" t="n">
-        <v>686132.5904526857</v>
+        <v>801954.43863161</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.117231888155316e-06</v>
+        <v>2.081318269589595e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.7109375</v>
       </c>
       <c r="AH24" t="n">
-        <v>620649.0590130195</v>
+        <v>725417.0325587322</v>
       </c>
     </row>
     <row r="25">
@@ -23398,28 +23398,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>501.7411430810942</v>
+        <v>586.3911311566809</v>
       </c>
       <c r="AB25" t="n">
-        <v>686.5043672205585</v>
+        <v>802.3262153994829</v>
       </c>
       <c r="AC25" t="n">
-        <v>620.9853539279585</v>
+        <v>725.7533274736712</v>
       </c>
       <c r="AD25" t="n">
-        <v>501741.1430810941</v>
+        <v>586391.1311566809</v>
       </c>
       <c r="AE25" t="n">
-        <v>686504.3672205585</v>
+        <v>802326.2153994829</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.116996607142753e-06</v>
+        <v>2.080879958908414e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13.7109375</v>
       </c>
       <c r="AH25" t="n">
-        <v>620985.3539279585</v>
+        <v>725753.3274736712</v>
       </c>
     </row>
     <row r="26">
@@ -23504,28 +23504,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>502.8874218735024</v>
+        <v>587.5374099490891</v>
       </c>
       <c r="AB26" t="n">
-        <v>688.0727564345829</v>
+        <v>803.8946046135071</v>
       </c>
       <c r="AC26" t="n">
-        <v>622.4040582766445</v>
+        <v>727.1720318223571</v>
       </c>
       <c r="AD26" t="n">
-        <v>502887.4218735024</v>
+        <v>587537.4099490892</v>
       </c>
       <c r="AE26" t="n">
-        <v>688072.7564345829</v>
+        <v>803894.6046135072</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.116996607142753e-06</v>
+        <v>2.080879958908414e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13.7109375</v>
       </c>
       <c r="AH26" t="n">
-        <v>622404.0582766444</v>
+        <v>727172.0318223571</v>
       </c>
     </row>
   </sheetData>
@@ -23801,28 +23801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>627.4276488354622</v>
+        <v>727.5120002374434</v>
       </c>
       <c r="AB2" t="n">
-        <v>858.4741892909794</v>
+        <v>995.4140142891301</v>
       </c>
       <c r="AC2" t="n">
-        <v>776.5426175411397</v>
+        <v>900.4130978377182</v>
       </c>
       <c r="AD2" t="n">
-        <v>627427.6488354622</v>
+        <v>727512.0002374435</v>
       </c>
       <c r="AE2" t="n">
-        <v>858474.1892909794</v>
+        <v>995414.0142891301</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.44387130024987e-07</v>
+        <v>1.893021504197469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.54557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>776542.6175411397</v>
+        <v>900413.0978377182</v>
       </c>
     </row>
     <row r="3">
@@ -23907,28 +23907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>513.1679365957265</v>
+        <v>591.0114105280408</v>
       </c>
       <c r="AB3" t="n">
-        <v>702.1390102218297</v>
+        <v>808.6478854677175</v>
       </c>
       <c r="AC3" t="n">
-        <v>635.1278485445476</v>
+        <v>731.4716662231132</v>
       </c>
       <c r="AD3" t="n">
-        <v>513167.9365957265</v>
+        <v>591011.4105280407</v>
       </c>
       <c r="AE3" t="n">
-        <v>702139.0102218298</v>
+        <v>808647.8854677175</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093775520573115e-06</v>
+        <v>2.192470137913575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.14973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>635127.8485445477</v>
+        <v>731471.6662231132</v>
       </c>
     </row>
     <row r="4">
@@ -24013,28 +24013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>474.4312374130009</v>
+        <v>552.1893704907436</v>
       </c>
       <c r="AB4" t="n">
-        <v>649.1377494574679</v>
+        <v>755.5298575811581</v>
       </c>
       <c r="AC4" t="n">
-        <v>587.1849537197999</v>
+        <v>683.4231483664266</v>
       </c>
       <c r="AD4" t="n">
-        <v>474431.237413001</v>
+        <v>552189.3704907437</v>
       </c>
       <c r="AE4" t="n">
-        <v>649137.7494574678</v>
+        <v>755529.8575811582</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.145701285902504e-06</v>
+        <v>2.296555197170834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.46614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>587184.9537197999</v>
+        <v>683423.1483664266</v>
       </c>
     </row>
     <row r="5">
@@ -24119,28 +24119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.741869571097</v>
+        <v>536.5000026488398</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.6708642101163</v>
+        <v>734.0629723338066</v>
       </c>
       <c r="AC5" t="n">
-        <v>567.7668378714928</v>
+        <v>664.0050325181197</v>
       </c>
       <c r="AD5" t="n">
-        <v>458741.869571097</v>
+        <v>536500.0026488397</v>
       </c>
       <c r="AE5" t="n">
-        <v>627670.8642101163</v>
+        <v>734062.9723338066</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.174235003027133e-06</v>
+        <v>2.353750957674455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>567766.8378714928</v>
+        <v>664005.0325181197</v>
       </c>
     </row>
     <row r="6">
@@ -24225,28 +24225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>435.9649591145185</v>
+        <v>524.7581453182476</v>
       </c>
       <c r="AB6" t="n">
-        <v>596.5064904770551</v>
+        <v>717.9972451199046</v>
       </c>
       <c r="AC6" t="n">
-        <v>539.5767482280415</v>
+        <v>649.4725957611229</v>
       </c>
       <c r="AD6" t="n">
-        <v>435964.9591145185</v>
+        <v>524758.1453182476</v>
       </c>
       <c r="AE6" t="n">
-        <v>596506.4904770551</v>
+        <v>717997.2451199046</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.191696314309467e-06</v>
+        <v>2.388752109954102e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>539576.7482280416</v>
+        <v>649472.5957611229</v>
       </c>
     </row>
     <row r="7">
@@ -24331,28 +24331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>427.0253854276946</v>
+        <v>504.8687698514579</v>
       </c>
       <c r="AB7" t="n">
-        <v>584.2749713725857</v>
+        <v>690.7837241489252</v>
       </c>
       <c r="AC7" t="n">
-        <v>528.5125881398581</v>
+        <v>624.856295037197</v>
       </c>
       <c r="AD7" t="n">
-        <v>427025.3854276946</v>
+        <v>504868.7698514579</v>
       </c>
       <c r="AE7" t="n">
-        <v>584274.9713725857</v>
+        <v>690783.7241489252</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.203786872413123e-06</v>
+        <v>2.412987601692925e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.76302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>528512.5881398581</v>
+        <v>624856.2950371971</v>
       </c>
     </row>
     <row r="8">
@@ -24437,28 +24437,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>417.2841944902346</v>
+        <v>495.127578913998</v>
       </c>
       <c r="AB8" t="n">
-        <v>570.9466441809393</v>
+        <v>677.4553969572787</v>
       </c>
       <c r="AC8" t="n">
-        <v>516.4562977889575</v>
+        <v>612.8000046862966</v>
       </c>
       <c r="AD8" t="n">
-        <v>417284.1944902346</v>
+        <v>495127.578913998</v>
       </c>
       <c r="AE8" t="n">
-        <v>570946.6441809393</v>
+        <v>677455.3969572787</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.21149937579293e-06</v>
+        <v>2.4284472943179e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>516456.2977889575</v>
+        <v>612800.0046862966</v>
       </c>
     </row>
     <row r="9">
@@ -24543,28 +24543,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>411.3940652524107</v>
+        <v>489.2374496761741</v>
       </c>
       <c r="AB9" t="n">
-        <v>562.8875095035861</v>
+        <v>669.3962622799255</v>
       </c>
       <c r="AC9" t="n">
-        <v>509.1663156141444</v>
+        <v>605.5100225114835</v>
       </c>
       <c r="AD9" t="n">
-        <v>411394.0652524107</v>
+        <v>489237.4496761741</v>
       </c>
       <c r="AE9" t="n">
-        <v>562887.5095035861</v>
+        <v>669396.2622799255</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.218931887300862e-06</v>
+        <v>2.443345743976292e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH9" t="n">
-        <v>509166.3156141444</v>
+        <v>605510.0225114835</v>
       </c>
     </row>
     <row r="10">
@@ -24649,28 +24649,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>404.785775099276</v>
+        <v>482.6291595230393</v>
       </c>
       <c r="AB10" t="n">
-        <v>553.8457553788812</v>
+        <v>660.3545081552206</v>
       </c>
       <c r="AC10" t="n">
-        <v>500.9874938129199</v>
+        <v>597.3312007102589</v>
       </c>
       <c r="AD10" t="n">
-        <v>404785.775099276</v>
+        <v>482629.1595230394</v>
       </c>
       <c r="AE10" t="n">
-        <v>553845.7553788812</v>
+        <v>660354.5081552207</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.22361538770312e-06</v>
+        <v>2.452733808144595e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>500987.4938129199</v>
+        <v>597331.2007102589</v>
       </c>
     </row>
     <row r="11">
@@ -24755,28 +24755,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>400.7458765930204</v>
+        <v>478.5892610167837</v>
       </c>
       <c r="AB11" t="n">
-        <v>548.3181880148788</v>
+        <v>654.8269407912184</v>
       </c>
       <c r="AC11" t="n">
-        <v>495.9874697201483</v>
+        <v>592.3311766174874</v>
       </c>
       <c r="AD11" t="n">
-        <v>400745.8765930204</v>
+        <v>478589.2610167837</v>
       </c>
       <c r="AE11" t="n">
-        <v>548318.1880148789</v>
+        <v>654826.9407912183</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.226797113519872e-06</v>
+        <v>2.459111569128495e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.50911458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>495987.4697201483</v>
+        <v>592331.1766174873</v>
       </c>
     </row>
     <row r="12">
@@ -24861,28 +24861,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>402.7286928264662</v>
+        <v>480.5720772502294</v>
       </c>
       <c r="AB12" t="n">
-        <v>551.0311646611578</v>
+        <v>657.5399174374974</v>
       </c>
       <c r="AC12" t="n">
-        <v>498.4415236829932</v>
+        <v>594.7852305803323</v>
       </c>
       <c r="AD12" t="n">
-        <v>402728.6928264662</v>
+        <v>480572.0772502294</v>
       </c>
       <c r="AE12" t="n">
-        <v>551031.1646611579</v>
+        <v>657539.9174374974</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.226237129776124e-06</v>
+        <v>2.457989083195329e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH12" t="n">
-        <v>498441.5236829932</v>
+        <v>594785.2305803322</v>
       </c>
     </row>
   </sheetData>
@@ -25158,28 +25158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.8528746146966</v>
+        <v>592.9296153236522</v>
       </c>
       <c r="AB2" t="n">
-        <v>694.8667079353991</v>
+        <v>811.2724578942964</v>
       </c>
       <c r="AC2" t="n">
-        <v>628.5496045815935</v>
+        <v>733.8457531409098</v>
       </c>
       <c r="AD2" t="n">
-        <v>507852.8746146966</v>
+        <v>592929.6153236523</v>
       </c>
       <c r="AE2" t="n">
-        <v>694866.707935399</v>
+        <v>811272.4578942964</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.062512705092367e-06</v>
+        <v>2.222843026384528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.24348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>628549.6045815935</v>
+        <v>733845.7531409098</v>
       </c>
     </row>
     <row r="3">
@@ -25264,28 +25264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.1980696485841</v>
+        <v>500.8001535512602</v>
       </c>
       <c r="AB3" t="n">
-        <v>583.1430014250105</v>
+        <v>685.2168638323114</v>
       </c>
       <c r="AC3" t="n">
-        <v>527.4886518153497</v>
+        <v>619.8207280560634</v>
       </c>
       <c r="AD3" t="n">
-        <v>426198.0696485841</v>
+        <v>500800.1535512602</v>
       </c>
       <c r="AE3" t="n">
-        <v>583143.0014250105</v>
+        <v>685216.8638323115</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.189437275732878e-06</v>
+        <v>2.488377165762731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.51171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>527488.6518153497</v>
+        <v>619820.7280560634</v>
       </c>
     </row>
     <row r="4">
@@ -25370,28 +25370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>394.2391026479382</v>
+        <v>479.2304129937713</v>
       </c>
       <c r="AB4" t="n">
-        <v>539.4153328446107</v>
+        <v>655.7041932117618</v>
       </c>
       <c r="AC4" t="n">
-        <v>487.9342905520948</v>
+        <v>593.1247052982457</v>
       </c>
       <c r="AD4" t="n">
-        <v>394239.1026479382</v>
+        <v>479230.4129937713</v>
       </c>
       <c r="AE4" t="n">
-        <v>539415.3328446107</v>
+        <v>655704.1932117618</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.234379232539994e-06</v>
+        <v>2.58239854997958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>487934.2905520948</v>
+        <v>593124.7052982457</v>
       </c>
     </row>
     <row r="5">
@@ -25476,28 +25476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>380.3852799804712</v>
+        <v>454.9020230285756</v>
       </c>
       <c r="AB5" t="n">
-        <v>520.4599214834617</v>
+        <v>622.417016768565</v>
       </c>
       <c r="AC5" t="n">
-        <v>470.787957047167</v>
+        <v>563.014410255942</v>
       </c>
       <c r="AD5" t="n">
-        <v>380385.2799804712</v>
+        <v>454902.0230285756</v>
       </c>
       <c r="AE5" t="n">
-        <v>520459.9214834617</v>
+        <v>622417.0167685649</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257128612445897e-06</v>
+        <v>2.629991675441559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.73046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>470787.9570471669</v>
+        <v>563014.410255942</v>
       </c>
     </row>
     <row r="6">
@@ -25582,28 +25582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>369.8563510461444</v>
+        <v>444.3730940942487</v>
       </c>
       <c r="AB6" t="n">
-        <v>506.0537764119541</v>
+        <v>608.0108716970573</v>
       </c>
       <c r="AC6" t="n">
-        <v>457.7567142421324</v>
+        <v>549.9831674509074</v>
       </c>
       <c r="AD6" t="n">
-        <v>369856.3510461444</v>
+        <v>444373.0940942487</v>
       </c>
       <c r="AE6" t="n">
-        <v>506053.7764119541</v>
+        <v>608010.8716970573</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.271658519425425e-06</v>
+        <v>2.660389149512848e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.57421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>457756.7142421324</v>
+        <v>549983.1674509074</v>
       </c>
     </row>
     <row r="7">
@@ -25688,28 +25688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>362.504115185578</v>
+        <v>437.0208582336824</v>
       </c>
       <c r="AB7" t="n">
-        <v>495.9941229497731</v>
+        <v>597.9512182348764</v>
       </c>
       <c r="AC7" t="n">
-        <v>448.6571399875697</v>
+        <v>540.8835931963446</v>
       </c>
       <c r="AD7" t="n">
-        <v>362504.115185578</v>
+        <v>437020.8582336823</v>
       </c>
       <c r="AE7" t="n">
-        <v>495994.1229497731</v>
+        <v>597951.2182348764</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.277279578329914e-06</v>
+        <v>2.672148756270353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>448657.1399875697</v>
+        <v>540883.5931963446</v>
       </c>
     </row>
     <row r="8">
@@ -25794,28 +25794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>362.0699627757101</v>
+        <v>436.4161136232222</v>
       </c>
       <c r="AB8" t="n">
-        <v>495.4000964691392</v>
+        <v>597.1237799793954</v>
       </c>
       <c r="AC8" t="n">
-        <v>448.1198065605261</v>
+        <v>540.1351244866501</v>
       </c>
       <c r="AD8" t="n">
-        <v>362069.9627757101</v>
+        <v>436416.1136232222</v>
       </c>
       <c r="AE8" t="n">
-        <v>495400.0964691392</v>
+        <v>597123.7799793954</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.280063593353363e-06</v>
+        <v>2.67797308980591e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.48307291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>448119.8065605261</v>
+        <v>540135.1244866501</v>
       </c>
     </row>
   </sheetData>
@@ -48400,28 +48400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.4719983399563</v>
+        <v>506.4244877625162</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.7813145116542</v>
+        <v>692.9123260282653</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.3523609863557</v>
+        <v>626.7817461406845</v>
       </c>
       <c r="AD2" t="n">
-        <v>424471.9983399563</v>
+        <v>506424.4877625161</v>
       </c>
       <c r="AE2" t="n">
-        <v>580781.3145116542</v>
+        <v>692912.3260282653</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159955680391649e-06</v>
+        <v>2.521576348597584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.39713541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>525352.3609863557</v>
+        <v>626781.7461406845</v>
       </c>
     </row>
     <row r="3">
@@ -48506,28 +48506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.4707127363358</v>
+        <v>443.2431578105732</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.2626172970853</v>
+        <v>606.464843024462</v>
       </c>
       <c r="AC3" t="n">
-        <v>459.7547464533145</v>
+        <v>548.5846895849596</v>
       </c>
       <c r="AD3" t="n">
-        <v>371470.7127363358</v>
+        <v>443243.1578105732</v>
       </c>
       <c r="AE3" t="n">
-        <v>508262.6172970854</v>
+        <v>606464.843024462</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.266540716782417e-06</v>
+        <v>2.753276844936053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.1015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>459754.7464533144</v>
+        <v>548584.6895849596</v>
       </c>
     </row>
     <row r="4">
@@ -48612,28 +48612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>341.4930570137125</v>
+        <v>413.3507534339705</v>
       </c>
       <c r="AB4" t="n">
-        <v>467.2458662165606</v>
+        <v>565.5647365965864</v>
       </c>
       <c r="AC4" t="n">
-        <v>422.6525765285432</v>
+        <v>511.5880319109006</v>
       </c>
       <c r="AD4" t="n">
-        <v>341493.0570137125</v>
+        <v>413350.7534339705</v>
       </c>
       <c r="AE4" t="n">
-        <v>467245.8662165606</v>
+        <v>565564.7365965864</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.3057352656765e-06</v>
+        <v>2.838480141196391e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>422652.5765285432</v>
+        <v>511588.0319109006</v>
       </c>
     </row>
     <row r="5">
@@ -48718,28 +48718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.2202680426058</v>
+        <v>403.0779644628639</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.1901831428285</v>
+        <v>551.5090535228544</v>
       </c>
       <c r="AC5" t="n">
-        <v>409.9383481200931</v>
+        <v>498.8738035024505</v>
       </c>
       <c r="AD5" t="n">
-        <v>331220.2680426058</v>
+        <v>403077.9644628639</v>
       </c>
       <c r="AE5" t="n">
-        <v>453190.1831428285</v>
+        <v>551509.0535228543</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319915518845318e-06</v>
+        <v>2.869305966365456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.52864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>409938.3481200931</v>
+        <v>498873.8035024505</v>
       </c>
     </row>
     <row r="6">
@@ -48824,28 +48824,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>331.8144605496653</v>
+        <v>403.6721569699232</v>
       </c>
       <c r="AB6" t="n">
-        <v>454.0031835449105</v>
+        <v>552.3220539249363</v>
       </c>
       <c r="AC6" t="n">
-        <v>410.6737569048536</v>
+        <v>499.6092122872111</v>
       </c>
       <c r="AD6" t="n">
-        <v>331814.4605496653</v>
+        <v>403672.1569699232</v>
       </c>
       <c r="AE6" t="n">
-        <v>454003.1835449105</v>
+        <v>552322.0539249363</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321890331665733e-06</v>
+        <v>2.873598924609504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.50911458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>410673.7569048536</v>
+        <v>499609.212287211</v>
       </c>
     </row>
   </sheetData>
@@ -49121,28 +49121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.3674904462005</v>
+        <v>357.8688804874639</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.6618546549652</v>
+        <v>489.6519903436908</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.6141267721218</v>
+        <v>442.9202916161729</v>
       </c>
       <c r="AD2" t="n">
-        <v>291367.4904462005</v>
+        <v>357868.8804874639</v>
       </c>
       <c r="AE2" t="n">
-        <v>398661.8546549652</v>
+        <v>489651.9903436908</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.357176657242632e-06</v>
+        <v>3.228081273515704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.12109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>360614.1267721218</v>
+        <v>442920.2916161729</v>
       </c>
     </row>
     <row r="3">
@@ -49227,28 +49227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.6180839108908</v>
+        <v>338.2047252981748</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.6398453510303</v>
+        <v>462.7466256924051</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.1710601105261</v>
+        <v>418.5827372052895</v>
       </c>
       <c r="AD3" t="n">
-        <v>271618.0839108909</v>
+        <v>338204.7252981748</v>
       </c>
       <c r="AE3" t="n">
-        <v>371639.8453510302</v>
+        <v>462746.6256924052</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39150202235358e-06</v>
+        <v>3.309725079964867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>336171.060110526</v>
+        <v>418582.7372052895</v>
       </c>
     </row>
   </sheetData>
@@ -49524,28 +49524,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>755.8186700094403</v>
+        <v>870.9658921664045</v>
       </c>
       <c r="AB2" t="n">
-        <v>1034.144448673311</v>
+        <v>1191.693957965386</v>
       </c>
       <c r="AC2" t="n">
-        <v>935.4471539227785</v>
+        <v>1077.960359170144</v>
       </c>
       <c r="AD2" t="n">
-        <v>755818.6700094403</v>
+        <v>870965.8921664045</v>
       </c>
       <c r="AE2" t="n">
-        <v>1034144.448673311</v>
+        <v>1191693.957965386</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.442647709197622e-07</v>
+        <v>1.638361805243741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>935447.1539227786</v>
+        <v>1077960.359170144</v>
       </c>
     </row>
     <row r="3">
@@ -49630,28 +49630,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.1268516860716</v>
+        <v>678.3129020953004</v>
       </c>
       <c r="AB3" t="n">
-        <v>801.9646165686081</v>
+        <v>928.0976377000269</v>
       </c>
       <c r="AC3" t="n">
-        <v>725.4262391277081</v>
+        <v>839.521301751151</v>
       </c>
       <c r="AD3" t="n">
-        <v>586126.8516860716</v>
+        <v>678312.9020953004</v>
       </c>
       <c r="AE3" t="n">
-        <v>801964.6165686081</v>
+        <v>928097.6377000269</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.013669194233525e-06</v>
+        <v>1.96710433526101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>725426.239127708</v>
+        <v>839521.301751151</v>
       </c>
     </row>
     <row r="4">
@@ -49736,28 +49736,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>537.8447570292233</v>
+        <v>629.9454665838804</v>
       </c>
       <c r="AB4" t="n">
-        <v>735.9029246034236</v>
+        <v>861.9191786126447</v>
       </c>
       <c r="AC4" t="n">
-        <v>665.6693823255138</v>
+        <v>779.6588219170181</v>
       </c>
       <c r="AD4" t="n">
-        <v>537844.7570292233</v>
+        <v>629945.4665838804</v>
       </c>
       <c r="AE4" t="n">
-        <v>735902.9246034236</v>
+        <v>861919.1786126447</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.074232321882393e-06</v>
+        <v>2.084631820196699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>665669.3823255138</v>
+        <v>779658.8219170182</v>
       </c>
     </row>
     <row r="5">
@@ -49842,28 +49842,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>518.2537886198547</v>
+        <v>598.8313313819092</v>
       </c>
       <c r="AB5" t="n">
-        <v>709.0976973331981</v>
+        <v>819.3474461705401</v>
       </c>
       <c r="AC5" t="n">
-        <v>641.4224083245857</v>
+        <v>741.1500758693863</v>
       </c>
       <c r="AD5" t="n">
-        <v>518253.7886198548</v>
+        <v>598831.3313819092</v>
       </c>
       <c r="AE5" t="n">
-        <v>709097.697333198</v>
+        <v>819347.4461705402</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.107763614507498e-06</v>
+        <v>2.149701915514752e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.46614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>641422.4083245858</v>
+        <v>741150.0758693863</v>
       </c>
     </row>
     <row r="6">
@@ -49948,28 +49948,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>505.2781691985066</v>
+        <v>585.8557119605611</v>
       </c>
       <c r="AB6" t="n">
-        <v>691.3438823969817</v>
+        <v>801.5936312343239</v>
       </c>
       <c r="AC6" t="n">
-        <v>625.3629925682461</v>
+        <v>725.0906601130466</v>
       </c>
       <c r="AD6" t="n">
-        <v>505278.1691985066</v>
+        <v>585855.7119605611</v>
       </c>
       <c r="AE6" t="n">
-        <v>691343.8823969817</v>
+        <v>801593.6312343238</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.128000562038948e-06</v>
+        <v>2.188973294627409e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.21223958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>625362.9925682461</v>
+        <v>725090.6601130466</v>
       </c>
     </row>
     <row r="7">
@@ -50054,28 +50054,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>496.7264624427095</v>
+        <v>577.3040052047639</v>
       </c>
       <c r="AB7" t="n">
-        <v>679.6430599390246</v>
+        <v>789.8928087763669</v>
       </c>
       <c r="AC7" t="n">
-        <v>614.778880183469</v>
+        <v>714.5065477282695</v>
       </c>
       <c r="AD7" t="n">
-        <v>496726.4624427095</v>
+        <v>577304.005204764</v>
       </c>
       <c r="AE7" t="n">
-        <v>679643.0599390246</v>
+        <v>789892.8087763669</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.140433236617273e-06</v>
+        <v>2.213099871819491e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.05598958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>614778.880183469</v>
+        <v>714506.5477282696</v>
       </c>
     </row>
     <row r="8">
@@ -50160,28 +50160,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>476.2312707386905</v>
+        <v>568.2466394387757</v>
       </c>
       <c r="AB8" t="n">
-        <v>651.6006344655419</v>
+        <v>777.5001213525654</v>
       </c>
       <c r="AC8" t="n">
-        <v>589.4127844393842</v>
+        <v>703.2966009989498</v>
       </c>
       <c r="AD8" t="n">
-        <v>476231.2707386905</v>
+        <v>568246.6394387757</v>
       </c>
       <c r="AE8" t="n">
-        <v>651600.6344655419</v>
+        <v>777500.1213525655</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.151265665952843e-06</v>
+        <v>2.234121047986851e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.91927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>589412.7844393841</v>
+        <v>703296.6009989497</v>
       </c>
     </row>
     <row r="9">
@@ -50266,28 +50266,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>470.1597674162255</v>
+        <v>550.8225615243005</v>
       </c>
       <c r="AB9" t="n">
-        <v>643.2933357639231</v>
+        <v>753.6597292539146</v>
       </c>
       <c r="AC9" t="n">
-        <v>581.8983226664809</v>
+        <v>681.7315024619936</v>
       </c>
       <c r="AD9" t="n">
-        <v>470159.7674162255</v>
+        <v>550822.5615243005</v>
       </c>
       <c r="AE9" t="n">
-        <v>643293.3357639231</v>
+        <v>753659.7292539147</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.158060553445154e-06</v>
+        <v>2.247307058491831e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.84114583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>581898.3226664809</v>
+        <v>681731.5024619936</v>
       </c>
     </row>
     <row r="10">
@@ -50372,28 +50372,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>464.2223918605399</v>
+        <v>544.8851859686149</v>
       </c>
       <c r="AB10" t="n">
-        <v>635.1695565901114</v>
+        <v>745.5359500801028</v>
       </c>
       <c r="AC10" t="n">
-        <v>574.5498655752219</v>
+        <v>674.3830453707347</v>
       </c>
       <c r="AD10" t="n">
-        <v>464222.3918605399</v>
+        <v>544885.1859686149</v>
       </c>
       <c r="AE10" t="n">
-        <v>635169.5565901113</v>
+        <v>745535.9500801028</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.164510772731335e-06</v>
+        <v>2.259824213391486e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.76302083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>574549.8655752219</v>
+        <v>674383.0453707348</v>
       </c>
     </row>
     <row r="11">
@@ -50478,28 +50478,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>457.8200950890956</v>
+        <v>538.4828891971706</v>
       </c>
       <c r="AB11" t="n">
-        <v>626.4096516980219</v>
+        <v>736.7760451880134</v>
       </c>
       <c r="AC11" t="n">
-        <v>566.6259937114298</v>
+        <v>666.4591735069426</v>
       </c>
       <c r="AD11" t="n">
-        <v>457820.0950890956</v>
+        <v>538482.8891971706</v>
       </c>
       <c r="AE11" t="n">
-        <v>626409.6516980219</v>
+        <v>736776.0451880135</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.169533080877826e-06</v>
+        <v>2.269570395069079e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.70442708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>566625.9937114299</v>
+        <v>666459.1735069427</v>
       </c>
     </row>
     <row r="12">
@@ -50584,28 +50584,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>454.4520019196244</v>
+        <v>535.1147960276995</v>
       </c>
       <c r="AB12" t="n">
-        <v>621.8012780337679</v>
+        <v>732.1676715237593</v>
       </c>
       <c r="AC12" t="n">
-        <v>562.457436761799</v>
+        <v>662.2906165573119</v>
       </c>
       <c r="AD12" t="n">
-        <v>454452.0019196244</v>
+        <v>535114.7960276995</v>
       </c>
       <c r="AE12" t="n">
-        <v>621801.2780337678</v>
+        <v>732167.6715237593</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.171650328429779e-06</v>
+        <v>2.27367907950179e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>562457.436761799</v>
+        <v>662290.6165573118</v>
       </c>
     </row>
     <row r="13">
@@ -50690,28 +50690,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>448.5664865002811</v>
+        <v>529.2292806083561</v>
       </c>
       <c r="AB13" t="n">
-        <v>613.7484561864072</v>
+        <v>724.1148496763985</v>
       </c>
       <c r="AC13" t="n">
-        <v>555.1731649293441</v>
+        <v>655.0063447248569</v>
       </c>
       <c r="AD13" t="n">
-        <v>448566.4865002811</v>
+        <v>529229.2806083561</v>
       </c>
       <c r="AE13" t="n">
-        <v>613748.4561864072</v>
+        <v>724114.8496763986</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.174727723127384e-06</v>
+        <v>2.279651004549335e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>555173.1649293441</v>
+        <v>655006.3447248569</v>
       </c>
     </row>
     <row r="14">
@@ -50796,28 +50796,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>443.5535903195985</v>
+        <v>524.2163844276736</v>
       </c>
       <c r="AB14" t="n">
-        <v>606.889590478626</v>
+        <v>717.2559839686174</v>
       </c>
       <c r="AC14" t="n">
-        <v>548.968899738235</v>
+        <v>648.8020795337478</v>
       </c>
       <c r="AD14" t="n">
-        <v>443553.5903195985</v>
+        <v>524216.3844276735</v>
       </c>
       <c r="AE14" t="n">
-        <v>606889.590478626</v>
+        <v>717255.9839686174</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.177288115515791e-06</v>
+        <v>2.284619646188893e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.61328125</v>
       </c>
       <c r="AH14" t="n">
-        <v>548968.899738235</v>
+        <v>648802.0795337479</v>
       </c>
     </row>
     <row r="15">
@@ -50902,28 +50902,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>439.1828048626681</v>
+        <v>519.8455989707433</v>
       </c>
       <c r="AB15" t="n">
-        <v>600.9092889910085</v>
+        <v>711.2756824809999</v>
       </c>
       <c r="AC15" t="n">
-        <v>543.5593498311898</v>
+        <v>643.3925296267026</v>
       </c>
       <c r="AD15" t="n">
-        <v>439182.8048626682</v>
+        <v>519845.5989707432</v>
       </c>
       <c r="AE15" t="n">
-        <v>600909.2889910084</v>
+        <v>711275.6824809999</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.1804886060013e-06</v>
+        <v>2.29083044823834e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>543559.3498311898</v>
+        <v>643392.5296267027</v>
       </c>
     </row>
     <row r="16">
@@ -51008,28 +51008,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>440.051933043858</v>
+        <v>520.7147271519332</v>
       </c>
       <c r="AB16" t="n">
-        <v>602.0984685117419</v>
+        <v>712.4648620017332</v>
       </c>
       <c r="AC16" t="n">
-        <v>544.6350357274885</v>
+        <v>644.4682155230013</v>
       </c>
       <c r="AD16" t="n">
-        <v>440051.933043858</v>
+        <v>520714.7271519331</v>
       </c>
       <c r="AE16" t="n">
-        <v>602098.4685117418</v>
+        <v>712464.8620017332</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.180217795267911e-06</v>
+        <v>2.290304918834156e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>544635.0357274885</v>
+        <v>644468.2155230013</v>
       </c>
     </row>
   </sheetData>
@@ -51305,28 +51305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>968.2041088126989</v>
+        <v>1099.888654357476</v>
       </c>
       <c r="AB2" t="n">
-        <v>1324.739575828203</v>
+        <v>1504.916180554701</v>
       </c>
       <c r="AC2" t="n">
-        <v>1198.30828999483</v>
+        <v>1361.289092445685</v>
       </c>
       <c r="AD2" t="n">
-        <v>968204.1088126989</v>
+        <v>1099888.654357476</v>
       </c>
       <c r="AE2" t="n">
-        <v>1324739.575828203</v>
+        <v>1504916.180554701</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.309066672033267e-07</v>
+        <v>1.371467590643163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.1328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1198308.28999483</v>
+        <v>1361289.092445685</v>
       </c>
     </row>
     <row r="3">
@@ -51411,28 +51411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>699.3552986768595</v>
+        <v>807.151434159408</v>
       </c>
       <c r="AB3" t="n">
-        <v>956.8887730279354</v>
+        <v>1104.380201225021</v>
       </c>
       <c r="AC3" t="n">
-        <v>865.5646515319764</v>
+        <v>998.9797048274512</v>
       </c>
       <c r="AD3" t="n">
-        <v>699355.2986768596</v>
+        <v>807151.4341594081</v>
       </c>
       <c r="AE3" t="n">
-        <v>956888.7730279354</v>
+        <v>1104380.20122502</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.198904872215582e-07</v>
+        <v>1.726075361978274e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.79036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>865564.6515319764</v>
+        <v>998979.7048274511</v>
       </c>
     </row>
     <row r="4">
@@ -51517,28 +51517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>633.8104736650009</v>
+        <v>729.7051192979966</v>
       </c>
       <c r="AB4" t="n">
-        <v>867.2074518131122</v>
+        <v>998.4147365413634</v>
       </c>
       <c r="AC4" t="n">
-        <v>784.4423897453711</v>
+        <v>903.1274353697386</v>
       </c>
       <c r="AD4" t="n">
-        <v>633810.4736650009</v>
+        <v>729705.1192979966</v>
       </c>
       <c r="AE4" t="n">
-        <v>867207.4518131122</v>
+        <v>998414.7365413634</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.908721077958176e-07</v>
+        <v>1.85926472324298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.5859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>784442.3897453711</v>
+        <v>903127.4353697386</v>
       </c>
     </row>
     <row r="5">
@@ -51623,28 +51623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>608.8853798640173</v>
+        <v>692.7932843014395</v>
       </c>
       <c r="AB5" t="n">
-        <v>833.1038388570747</v>
+        <v>947.910335463843</v>
       </c>
       <c r="AC5" t="n">
-        <v>753.5935777451365</v>
+        <v>857.4431034476846</v>
       </c>
       <c r="AD5" t="n">
-        <v>608885.3798640172</v>
+        <v>692793.2843014395</v>
       </c>
       <c r="AE5" t="n">
-        <v>833103.8388570747</v>
+        <v>947910.335463843</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.027928689125026e-06</v>
+        <v>1.928797404491467e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>753593.5777451365</v>
+        <v>857443.1034476847</v>
       </c>
     </row>
     <row r="6">
@@ -51729,28 +51729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>580.533615916042</v>
+        <v>676.3429206944662</v>
       </c>
       <c r="AB6" t="n">
-        <v>794.3117046319064</v>
+        <v>925.40222223796</v>
       </c>
       <c r="AC6" t="n">
-        <v>718.5037103653157</v>
+        <v>837.0831329577446</v>
       </c>
       <c r="AD6" t="n">
-        <v>580533.615916042</v>
+        <v>676342.9206944662</v>
       </c>
       <c r="AE6" t="n">
-        <v>794311.7046319065</v>
+        <v>925402.22223796</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.051486426167219e-06</v>
+        <v>1.973000959216017e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>718503.7103653157</v>
+        <v>837083.1329577446</v>
       </c>
     </row>
     <row r="7">
@@ -51835,28 +51835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>568.4442651508892</v>
+        <v>652.26682873374</v>
       </c>
       <c r="AB7" t="n">
-        <v>777.7705215705104</v>
+        <v>892.4602510550808</v>
       </c>
       <c r="AC7" t="n">
-        <v>703.541194599603</v>
+        <v>807.2850972702124</v>
       </c>
       <c r="AD7" t="n">
-        <v>568444.2651508893</v>
+        <v>652266.82873374</v>
       </c>
       <c r="AE7" t="n">
-        <v>777770.5215705103</v>
+        <v>892460.2510550808</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.069635135973137e-06</v>
+        <v>2.007055057266652e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.44010416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>703541.1945996031</v>
+        <v>807285.0972702124</v>
       </c>
     </row>
     <row r="8">
@@ -51941,28 +51941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>560.3369311403591</v>
+        <v>644.1594947232097</v>
       </c>
       <c r="AB8" t="n">
-        <v>766.6777095069693</v>
+        <v>881.3674389915399</v>
       </c>
       <c r="AC8" t="n">
-        <v>693.5070649505468</v>
+        <v>797.2509676211563</v>
       </c>
       <c r="AD8" t="n">
-        <v>560336.931140359</v>
+        <v>644159.4947232098</v>
       </c>
       <c r="AE8" t="n">
-        <v>766677.7095069693</v>
+        <v>881367.4389915399</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.080903942715374e-06</v>
+        <v>2.028199758670641e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.29036458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>693507.0649505468</v>
+        <v>797250.9676211562</v>
       </c>
     </row>
     <row r="9">
@@ -52047,28 +52047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>553.6076523398849</v>
+        <v>637.4302159227357</v>
       </c>
       <c r="AB9" t="n">
-        <v>757.4704133773323</v>
+        <v>872.1601428619028</v>
       </c>
       <c r="AC9" t="n">
-        <v>685.1785002410012</v>
+        <v>788.9224029116106</v>
       </c>
       <c r="AD9" t="n">
-        <v>553607.6523398849</v>
+        <v>637430.2159227356</v>
       </c>
       <c r="AE9" t="n">
-        <v>757470.4133773323</v>
+        <v>872160.1428619028</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.088875140747778e-06</v>
+        <v>2.04315685271641e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.18619791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>685178.5002410011</v>
+        <v>788922.4029116106</v>
       </c>
     </row>
     <row r="10">
@@ -52153,28 +52153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>546.7517182639149</v>
+        <v>630.5742818467656</v>
       </c>
       <c r="AB10" t="n">
-        <v>748.0898219121254</v>
+        <v>862.7795513966959</v>
       </c>
       <c r="AC10" t="n">
-        <v>676.6931792594908</v>
+        <v>780.4370819301002</v>
       </c>
       <c r="AD10" t="n">
-        <v>546751.7182639149</v>
+        <v>630574.2818467657</v>
       </c>
       <c r="AE10" t="n">
-        <v>748089.8219121255</v>
+        <v>862779.5513966959</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.097486881479214e-06</v>
+        <v>2.059315856105143e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>676693.1792594908</v>
+        <v>780437.0819301002</v>
       </c>
     </row>
     <row r="11">
@@ -52259,28 +52259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>540.4801514891097</v>
+        <v>624.3027150719605</v>
       </c>
       <c r="AB11" t="n">
-        <v>739.5087875688382</v>
+        <v>854.1985170534086</v>
       </c>
       <c r="AC11" t="n">
-        <v>668.9311067903695</v>
+        <v>772.6750094609789</v>
       </c>
       <c r="AD11" t="n">
-        <v>540480.1514891097</v>
+        <v>624302.7150719605</v>
       </c>
       <c r="AE11" t="n">
-        <v>739508.7875688382</v>
+        <v>854198.5170534087</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.102967080126491e-06</v>
+        <v>2.06959885826161e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.00390625</v>
       </c>
       <c r="AH11" t="n">
-        <v>668931.1067903695</v>
+        <v>772675.0094609789</v>
       </c>
     </row>
     <row r="12">
@@ -52365,28 +52365,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>525.703786704794</v>
+        <v>621.4277506286464</v>
       </c>
       <c r="AB12" t="n">
-        <v>719.2911133837308</v>
+        <v>850.2648638675865</v>
       </c>
       <c r="AC12" t="n">
-        <v>650.642979053805</v>
+        <v>769.116778614295</v>
       </c>
       <c r="AD12" t="n">
-        <v>525703.7867047939</v>
+        <v>621427.7506286465</v>
       </c>
       <c r="AE12" t="n">
-        <v>719291.1133837309</v>
+        <v>850264.8638675866</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.105908831781306e-06</v>
+        <v>2.075118738207072e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.96484375</v>
       </c>
       <c r="AH12" t="n">
-        <v>650642.979053805</v>
+        <v>769116.7786142949</v>
       </c>
     </row>
     <row r="13">
@@ -52471,28 +52471,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>519.6213057982051</v>
+        <v>615.3452697220577</v>
       </c>
       <c r="AB13" t="n">
-        <v>710.9687946672168</v>
+        <v>841.9425451510725</v>
       </c>
       <c r="AC13" t="n">
-        <v>643.1149307551474</v>
+        <v>761.5887303156373</v>
       </c>
       <c r="AD13" t="n">
-        <v>519621.3057982051</v>
+        <v>615345.2697220576</v>
       </c>
       <c r="AE13" t="n">
-        <v>710968.7946672168</v>
+        <v>841942.5451510726</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.111744887483602e-06</v>
+        <v>2.086069467776296e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.89322916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>643114.9307551474</v>
+        <v>761588.7303156373</v>
       </c>
     </row>
     <row r="14">
@@ -52577,28 +52577,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>516.2106289506548</v>
+        <v>611.9345928745073</v>
       </c>
       <c r="AB14" t="n">
-        <v>706.3021561359557</v>
+        <v>837.2759066198114</v>
       </c>
       <c r="AC14" t="n">
-        <v>638.8936696556415</v>
+        <v>757.3674692161313</v>
       </c>
       <c r="AD14" t="n">
-        <v>516210.6289506548</v>
+        <v>611934.5928745073</v>
       </c>
       <c r="AE14" t="n">
-        <v>706302.1561359557</v>
+        <v>837275.9066198114</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.114568020120078e-06</v>
+        <v>2.091366771917506e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.86067708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>638893.6696556414</v>
+        <v>757367.4692161314</v>
       </c>
     </row>
     <row r="15">
@@ -52683,28 +52683,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>511.2895529815423</v>
+        <v>595.1973679104136</v>
       </c>
       <c r="AB15" t="n">
-        <v>699.5689228924665</v>
+        <v>814.3752970296863</v>
       </c>
       <c r="AC15" t="n">
-        <v>632.8030467427587</v>
+        <v>736.6524616640804</v>
       </c>
       <c r="AD15" t="n">
-        <v>511289.5529815423</v>
+        <v>595197.3679104137</v>
       </c>
       <c r="AE15" t="n">
-        <v>699568.9228924665</v>
+        <v>814375.2970296863</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.118174038277594e-06</v>
+        <v>2.098133076366782e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.81510416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>632803.0467427587</v>
+        <v>736652.4616640804</v>
       </c>
     </row>
     <row r="16">
@@ -52789,28 +52789,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>506.3971996592406</v>
+        <v>590.305014588112</v>
       </c>
       <c r="AB16" t="n">
-        <v>692.8749892414977</v>
+        <v>807.6813633787175</v>
       </c>
       <c r="AC16" t="n">
-        <v>626.7479727244436</v>
+        <v>730.5973876457653</v>
       </c>
       <c r="AD16" t="n">
-        <v>506397.1996592407</v>
+        <v>590305.014588112</v>
       </c>
       <c r="AE16" t="n">
-        <v>692874.9892414977</v>
+        <v>807681.3633787174</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.121234408950749e-06</v>
+        <v>2.103875532116498e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>626747.9727244435</v>
+        <v>730597.3876457652</v>
       </c>
     </row>
     <row r="17">
@@ -52895,28 +52895,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>503.7528971615827</v>
+        <v>587.660712090454</v>
       </c>
       <c r="AB17" t="n">
-        <v>689.2569379058093</v>
+        <v>804.063312043029</v>
       </c>
       <c r="AC17" t="n">
-        <v>623.4752231302662</v>
+        <v>727.3246380515878</v>
       </c>
       <c r="AD17" t="n">
-        <v>503752.8971615827</v>
+        <v>587660.7120904541</v>
       </c>
       <c r="AE17" t="n">
-        <v>689256.9379058093</v>
+        <v>804063.312043029</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.120949723306734e-06</v>
+        <v>2.103341350186291e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>623475.2231302662</v>
+        <v>727324.6380515879</v>
       </c>
     </row>
     <row r="18">
@@ -53001,28 +53001,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>501.7270112719663</v>
+        <v>585.6348262008377</v>
       </c>
       <c r="AB18" t="n">
-        <v>686.4850314558585</v>
+        <v>801.2914055930781</v>
       </c>
       <c r="AC18" t="n">
-        <v>620.9678635415034</v>
+        <v>724.8172784628251</v>
       </c>
       <c r="AD18" t="n">
-        <v>501727.0112719663</v>
+        <v>585634.8262008376</v>
       </c>
       <c r="AE18" t="n">
-        <v>686485.0314558585</v>
+        <v>801291.4055930781</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.123535617906532e-06</v>
+        <v>2.108193502718996e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>620967.8635415034</v>
+        <v>724817.2784628251</v>
       </c>
     </row>
     <row r="19">
@@ -53107,28 +53107,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>494.851919990285</v>
+        <v>578.7597349191564</v>
       </c>
       <c r="AB19" t="n">
-        <v>677.0782282566412</v>
+        <v>791.884602393861</v>
       </c>
       <c r="AC19" t="n">
-        <v>612.4588324370884</v>
+        <v>716.3082473584101</v>
       </c>
       <c r="AD19" t="n">
-        <v>494851.919990285</v>
+        <v>578759.7349191564</v>
       </c>
       <c r="AE19" t="n">
-        <v>677078.2282566412</v>
+        <v>791884.6023938609</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.12678577900903e-06</v>
+        <v>2.114292079755515e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.70442708333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>612458.8324370884</v>
+        <v>716308.24735841</v>
       </c>
     </row>
     <row r="20">
@@ -53213,28 +53213,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>494.2517658838223</v>
+        <v>578.1595808126935</v>
       </c>
       <c r="AB20" t="n">
-        <v>676.2570709312484</v>
+        <v>791.0634450684682</v>
       </c>
       <c r="AC20" t="n">
-        <v>611.7160452143295</v>
+        <v>715.5654601356513</v>
       </c>
       <c r="AD20" t="n">
-        <v>494251.7658838223</v>
+        <v>578159.5808126936</v>
       </c>
       <c r="AE20" t="n">
-        <v>676257.0709312485</v>
+        <v>791063.4450684682</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.126880674223701e-06</v>
+        <v>2.114470140398917e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.70442708333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>611716.0452143295</v>
+        <v>715565.4601356513</v>
       </c>
     </row>
     <row r="21">
@@ -53319,28 +53319,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>490.5880770882222</v>
+        <v>574.4958920170935</v>
       </c>
       <c r="AB21" t="n">
-        <v>671.244250290566</v>
+        <v>786.0506244277856</v>
       </c>
       <c r="AC21" t="n">
-        <v>607.1816411400558</v>
+        <v>711.0310560613775</v>
       </c>
       <c r="AD21" t="n">
-        <v>490588.0770882223</v>
+        <v>574495.8920170935</v>
       </c>
       <c r="AE21" t="n">
-        <v>671244.250290566</v>
+        <v>786050.6244277856</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.125907998273319e-06</v>
+        <v>2.112645018804046e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>607181.6411400558</v>
+        <v>711031.0560613775</v>
       </c>
     </row>
     <row r="22">
@@ -53425,28 +53425,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>489.3939407974441</v>
+        <v>573.3017557263154</v>
       </c>
       <c r="AB22" t="n">
-        <v>669.6103803359483</v>
+        <v>784.416754473168</v>
       </c>
       <c r="AC22" t="n">
-        <v>605.7037054407559</v>
+        <v>709.5531203620776</v>
       </c>
       <c r="AD22" t="n">
-        <v>489393.9407974441</v>
+        <v>573301.7557263154</v>
       </c>
       <c r="AE22" t="n">
-        <v>669610.3803359483</v>
+        <v>784416.7544731681</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.129490292627167e-06</v>
+        <v>2.119366808092472e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH22" t="n">
-        <v>605703.7054407559</v>
+        <v>709553.1203620776</v>
       </c>
     </row>
     <row r="23">
@@ -53531,28 +53531,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>490.4004316228696</v>
+        <v>574.3082465517409</v>
       </c>
       <c r="AB23" t="n">
-        <v>670.9875054865369</v>
+        <v>785.7938796237565</v>
       </c>
       <c r="AC23" t="n">
-        <v>606.9493996997796</v>
+        <v>710.7988146211012</v>
       </c>
       <c r="AD23" t="n">
-        <v>490400.4316228696</v>
+        <v>574308.2465517409</v>
       </c>
       <c r="AE23" t="n">
-        <v>670987.5054865369</v>
+        <v>785793.8796237565</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.129205606983152e-06</v>
+        <v>2.118832626162266e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>606949.3996997796</v>
+        <v>710798.8146211012</v>
       </c>
     </row>
     <row r="24">
@@ -53637,28 +53637,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>491.3391379793108</v>
+        <v>575.246952908182</v>
       </c>
       <c r="AB24" t="n">
-        <v>672.2718849362215</v>
+        <v>787.0782590734411</v>
       </c>
       <c r="AC24" t="n">
-        <v>608.1111997774241</v>
+        <v>711.9606146987458</v>
       </c>
       <c r="AD24" t="n">
-        <v>491339.1379793108</v>
+        <v>575246.9529081821</v>
       </c>
       <c r="AE24" t="n">
-        <v>672271.8849362214</v>
+        <v>787078.2590734411</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.129442845019831e-06</v>
+        <v>2.119277777770771e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH24" t="n">
-        <v>608111.1997774241</v>
+        <v>711960.6146987458</v>
       </c>
     </row>
   </sheetData>
@@ -53934,28 +53934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.8737138416826</v>
+        <v>313.9098132382989</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.8882389282743</v>
+        <v>429.5052551962078</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.2589052482188</v>
+        <v>388.5138764546927</v>
       </c>
       <c r="AD2" t="n">
-        <v>249873.7138416826</v>
+        <v>313909.8132382989</v>
       </c>
       <c r="AE2" t="n">
-        <v>341888.2389282744</v>
+        <v>429505.2551962078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401305110245795e-06</v>
+        <v>3.504557736336196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.16015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>309258.9052482188</v>
+        <v>388513.8764546927</v>
       </c>
     </row>
   </sheetData>
@@ -54231,28 +54231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.4338009491095</v>
+        <v>639.6739828636241</v>
       </c>
       <c r="AB2" t="n">
-        <v>742.1818569489411</v>
+        <v>875.2301637784377</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.3490621805117</v>
+        <v>791.6994253406729</v>
       </c>
       <c r="AD2" t="n">
-        <v>542433.8009491095</v>
+        <v>639673.9828636241</v>
       </c>
       <c r="AE2" t="n">
-        <v>742181.8569489411</v>
+        <v>875230.1637784378</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.022204145658026e-06</v>
+        <v>2.105008087974407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>671349.0621805118</v>
+        <v>791699.4253406728</v>
       </c>
     </row>
     <row r="3">
@@ -54337,28 +54337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.4611780257064</v>
+        <v>537.8874129658782</v>
       </c>
       <c r="AB3" t="n">
-        <v>617.7091008362713</v>
+        <v>735.9612883378018</v>
       </c>
       <c r="AC3" t="n">
-        <v>558.7558112126248</v>
+        <v>665.722175906997</v>
       </c>
       <c r="AD3" t="n">
-        <v>451461.1780257064</v>
+        <v>537887.4129658781</v>
       </c>
       <c r="AE3" t="n">
-        <v>617709.1008362713</v>
+        <v>735961.2883378018</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.156423471789592e-06</v>
+        <v>2.381403726037044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.70703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>558755.8112126249</v>
+        <v>665722.1759069969</v>
       </c>
     </row>
     <row r="4">
@@ -54443,28 +54443,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>428.7319390830227</v>
+        <v>504.3443165574025</v>
       </c>
       <c r="AB4" t="n">
-        <v>586.6099533716392</v>
+        <v>690.0661440147522</v>
       </c>
       <c r="AC4" t="n">
-        <v>530.6247227340897</v>
+        <v>624.2071997438995</v>
       </c>
       <c r="AD4" t="n">
-        <v>428731.9390830226</v>
+        <v>504344.3165574025</v>
       </c>
       <c r="AE4" t="n">
-        <v>586609.9533716392</v>
+        <v>690066.1440147522</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.203218646619578e-06</v>
+        <v>2.477768255484227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>530624.7227340897</v>
+        <v>624207.1997438995</v>
       </c>
     </row>
     <row r="5">
@@ -54549,28 +54549,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>404.9447669940134</v>
+        <v>491.2856610796135</v>
       </c>
       <c r="AB5" t="n">
-        <v>554.0632951034884</v>
+        <v>672.1987154828211</v>
       </c>
       <c r="AC5" t="n">
-        <v>501.1842718515293</v>
+        <v>608.0450135139627</v>
       </c>
       <c r="AD5" t="n">
-        <v>404944.7669940135</v>
+        <v>491285.6610796135</v>
       </c>
       <c r="AE5" t="n">
-        <v>554063.2951034884</v>
+        <v>672198.7154828211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.225505795770877e-06</v>
+        <v>2.523663813060133e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>501184.2718515293</v>
+        <v>608045.0135139626</v>
       </c>
     </row>
     <row r="6">
@@ -54655,28 +54655,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>393.7817465640329</v>
+        <v>469.4793753844332</v>
       </c>
       <c r="AB6" t="n">
-        <v>538.789558073485</v>
+        <v>642.3623933692471</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.3682388468448</v>
+        <v>581.0562281073668</v>
       </c>
       <c r="AD6" t="n">
-        <v>393781.7465640329</v>
+        <v>469479.3753844333</v>
       </c>
       <c r="AE6" t="n">
-        <v>538789.5580734849</v>
+        <v>642362.3933692471</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.242619609011324e-06</v>
+        <v>2.558906005571526e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.69140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>487368.2388468448</v>
+        <v>581056.2281073668</v>
       </c>
     </row>
     <row r="7">
@@ -54761,28 +54761,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>383.5463583152666</v>
+        <v>459.243987135667</v>
       </c>
       <c r="AB7" t="n">
-        <v>524.7850483180624</v>
+        <v>628.3578836138246</v>
       </c>
       <c r="AC7" t="n">
-        <v>474.7002998470271</v>
+        <v>568.388289107549</v>
       </c>
       <c r="AD7" t="n">
-        <v>383546.3583152666</v>
+        <v>459243.987135667</v>
       </c>
       <c r="AE7" t="n">
-        <v>524785.0483180624</v>
+        <v>628357.8836138246</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.253096920628758e-06</v>
+        <v>2.580481760070868e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.57421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>474700.2998470271</v>
+        <v>568388.289107549</v>
       </c>
     </row>
     <row r="8">
@@ -54867,28 +54867,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>375.8826226136149</v>
+        <v>451.5802514340153</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.2991870309054</v>
+        <v>617.8720223266675</v>
       </c>
       <c r="AC8" t="n">
-        <v>465.2151944441176</v>
+        <v>558.9031837046396</v>
       </c>
       <c r="AD8" t="n">
-        <v>375882.6226136149</v>
+        <v>451580.2514340153</v>
       </c>
       <c r="AE8" t="n">
-        <v>514299.1870309054</v>
+        <v>617872.0223266676</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.259419886742023e-06</v>
+        <v>2.593502539594161e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.50911458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>465215.1944441175</v>
+        <v>558903.1837046396</v>
       </c>
     </row>
     <row r="9">
@@ -54973,28 +54973,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>376.2669500990642</v>
+        <v>451.9645789194646</v>
       </c>
       <c r="AB9" t="n">
-        <v>514.8250408518292</v>
+        <v>618.3978761475913</v>
       </c>
       <c r="AC9" t="n">
-        <v>465.6908615144127</v>
+        <v>559.3788507749347</v>
       </c>
       <c r="AD9" t="n">
-        <v>376266.9500990642</v>
+        <v>451964.5789194646</v>
       </c>
       <c r="AE9" t="n">
-        <v>514825.0408518291</v>
+        <v>618397.8761475913</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.259289246946294e-06</v>
+        <v>2.593233515223845e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.50911458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>465690.8615144127</v>
+        <v>559378.8507749346</v>
       </c>
     </row>
   </sheetData>
@@ -55270,28 +55270,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>676.9352900107738</v>
+        <v>778.2018046237151</v>
       </c>
       <c r="AB2" t="n">
-        <v>926.2127280700219</v>
+        <v>1064.770040926768</v>
       </c>
       <c r="AC2" t="n">
-        <v>837.8162852507464</v>
+        <v>963.1498826348549</v>
       </c>
       <c r="AD2" t="n">
-        <v>676935.2900107738</v>
+        <v>778201.8046237151</v>
       </c>
       <c r="AE2" t="n">
-        <v>926212.7280700218</v>
+        <v>1064770.040926768</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.088978607268388e-07</v>
+        <v>1.800694000905414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>837816.2852507464</v>
+        <v>963149.8826348549</v>
       </c>
     </row>
     <row r="3">
@@ -55376,28 +55376,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.474935148098</v>
+        <v>627.3948015776944</v>
       </c>
       <c r="AB3" t="n">
-        <v>735.3969179902782</v>
+        <v>858.4292462237829</v>
       </c>
       <c r="AC3" t="n">
-        <v>665.2116682733422</v>
+        <v>776.5019637771983</v>
       </c>
       <c r="AD3" t="n">
-        <v>537474.935148098</v>
+        <v>627394.8015776944</v>
       </c>
       <c r="AE3" t="n">
-        <v>735396.9179902782</v>
+        <v>858429.2462237829</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.065743178089542e-06</v>
+        <v>2.111433451671937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>665211.6682733422</v>
+        <v>776501.9637771983</v>
       </c>
     </row>
     <row r="4">
@@ -55482,28 +55482,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.9245611904755</v>
+        <v>584.9296789660924</v>
       </c>
       <c r="AB4" t="n">
-        <v>677.1776191514455</v>
+        <v>800.3265920375994</v>
       </c>
       <c r="AC4" t="n">
-        <v>612.5487376043885</v>
+        <v>723.9445453589569</v>
       </c>
       <c r="AD4" t="n">
-        <v>494924.5611904755</v>
+        <v>584929.6789660924</v>
       </c>
       <c r="AE4" t="n">
-        <v>677177.6191514455</v>
+        <v>800326.5920375994</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.122469110832589e-06</v>
+        <v>2.223817968348523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.58984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>612548.7376043885</v>
+        <v>723944.5453589569</v>
       </c>
     </row>
     <row r="5">
@@ -55588,28 +55588,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>478.6171555521704</v>
+        <v>557.3610555075649</v>
       </c>
       <c r="AB5" t="n">
-        <v>654.8651073251547</v>
+        <v>762.605985179813</v>
       </c>
       <c r="AC5" t="n">
-        <v>592.3657005909919</v>
+        <v>689.8239402784733</v>
       </c>
       <c r="AD5" t="n">
-        <v>478617.1555521704</v>
+        <v>557361.0555075648</v>
       </c>
       <c r="AE5" t="n">
-        <v>654865.1073251547</v>
+        <v>762605.985179813</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.150316386906448e-06</v>
+        <v>2.278988549262483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.23828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>592365.7005909919</v>
+        <v>689823.9402784733</v>
       </c>
     </row>
     <row r="6">
@@ -55694,28 +55694,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>467.1226959406017</v>
+        <v>545.8665958959959</v>
       </c>
       <c r="AB6" t="n">
-        <v>639.1378805848375</v>
+        <v>746.878758439496</v>
       </c>
       <c r="AC6" t="n">
-        <v>578.1394582974692</v>
+        <v>675.5976979849509</v>
       </c>
       <c r="AD6" t="n">
-        <v>467122.6959406016</v>
+        <v>545866.595895996</v>
       </c>
       <c r="AE6" t="n">
-        <v>639137.8805848375</v>
+        <v>746878.7584394959</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.169686217599196e-06</v>
+        <v>2.317363750078877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.00390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>578139.4582974692</v>
+        <v>675597.6979849508</v>
       </c>
     </row>
     <row r="7">
@@ -55800,28 +55800,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>447.4609954093784</v>
+        <v>537.3807723304236</v>
       </c>
       <c r="AB7" t="n">
-        <v>612.2358745050093</v>
+        <v>735.2680802689655</v>
       </c>
       <c r="AC7" t="n">
-        <v>553.804941920697</v>
+        <v>665.0951266433267</v>
       </c>
       <c r="AD7" t="n">
-        <v>447460.9954093784</v>
+        <v>537380.7723304236</v>
       </c>
       <c r="AE7" t="n">
-        <v>612235.8745050093</v>
+        <v>735268.0802689655</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.181584827881884e-06</v>
+        <v>2.340937087723235e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.86067708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>553804.941920697</v>
+        <v>665095.1266433267</v>
       </c>
     </row>
     <row r="8">
@@ -55906,28 +55906,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>439.187754919068</v>
+        <v>518.016906220483</v>
       </c>
       <c r="AB8" t="n">
-        <v>600.9160618765559</v>
+        <v>708.7735843838635</v>
       </c>
       <c r="AC8" t="n">
-        <v>543.5654763220465</v>
+        <v>641.1292282602403</v>
       </c>
       <c r="AD8" t="n">
-        <v>439187.754919068</v>
+        <v>518016.9062204829</v>
       </c>
       <c r="AE8" t="n">
-        <v>600916.0618765559</v>
+        <v>708773.5843838635</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.190037117638719e-06</v>
+        <v>2.357682629897661e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.76302083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>543565.4763220465</v>
+        <v>641129.2282602403</v>
       </c>
     </row>
     <row r="9">
@@ -56012,28 +56012,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>431.9948201729562</v>
+        <v>510.8239714743711</v>
       </c>
       <c r="AB9" t="n">
-        <v>591.0743712270407</v>
+        <v>698.9318937343485</v>
       </c>
       <c r="AC9" t="n">
-        <v>534.6630628152215</v>
+        <v>632.2268147534153</v>
       </c>
       <c r="AD9" t="n">
-        <v>431994.8201729562</v>
+        <v>510823.9714743712</v>
       </c>
       <c r="AE9" t="n">
-        <v>591074.3712270408</v>
+        <v>698931.8937343485</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.198464251771278e-06</v>
+        <v>2.37437833414895e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.66536458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>534663.0628152215</v>
+        <v>632226.8147534153</v>
       </c>
     </row>
     <row r="10">
@@ -56118,28 +56118,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>425.4137416940004</v>
+        <v>504.2428929954154</v>
       </c>
       <c r="AB10" t="n">
-        <v>582.0698493154421</v>
+        <v>689.9273718227495</v>
       </c>
       <c r="AC10" t="n">
-        <v>526.5179198369398</v>
+        <v>624.0816717751336</v>
       </c>
       <c r="AD10" t="n">
-        <v>425413.7416940004</v>
+        <v>504242.8929954154</v>
       </c>
       <c r="AE10" t="n">
-        <v>582069.849315442</v>
+        <v>689927.3718227495</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.203243820383774e-06</v>
+        <v>2.383847539545203e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.61328125</v>
       </c>
       <c r="AH10" t="n">
-        <v>526517.9198369398</v>
+        <v>624081.6717751336</v>
       </c>
     </row>
     <row r="11">
@@ -56224,28 +56224,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>419.7001712332119</v>
+        <v>498.5293225346268</v>
       </c>
       <c r="AB11" t="n">
-        <v>574.2522901460521</v>
+        <v>682.1098126533598</v>
       </c>
       <c r="AC11" t="n">
-        <v>519.4464575426633</v>
+        <v>617.0102094808572</v>
       </c>
       <c r="AD11" t="n">
-        <v>419700.1712332119</v>
+        <v>498529.3225346268</v>
       </c>
       <c r="AE11" t="n">
-        <v>574252.2901460521</v>
+        <v>682109.8126533597</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.205432359695812e-06</v>
+        <v>2.388183438858225e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.58723958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>519446.4575426633</v>
+        <v>617010.2094808571</v>
       </c>
     </row>
     <row r="12">
@@ -56330,28 +56330,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>415.7621387647664</v>
+        <v>494.5912900661812</v>
       </c>
       <c r="AB12" t="n">
-        <v>568.8641003889941</v>
+        <v>676.7216228963016</v>
       </c>
       <c r="AC12" t="n">
-        <v>514.5725090536471</v>
+        <v>612.1362609918408</v>
       </c>
       <c r="AD12" t="n">
-        <v>415762.1387647664</v>
+        <v>494591.2900661812</v>
       </c>
       <c r="AE12" t="n">
-        <v>568864.1003889941</v>
+        <v>676721.6228963016</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.207570587759297e-06</v>
+        <v>2.39241966232497e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.56119791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>514572.5090536471</v>
+        <v>612136.2609918409</v>
       </c>
     </row>
     <row r="13">
@@ -56436,28 +56436,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>414.0698071329995</v>
+        <v>492.8989584344143</v>
       </c>
       <c r="AB13" t="n">
-        <v>566.5485775900081</v>
+        <v>674.4061000973159</v>
       </c>
       <c r="AC13" t="n">
-        <v>512.4779765007398</v>
+        <v>610.0417284389337</v>
       </c>
       <c r="AD13" t="n">
-        <v>414069.8071329995</v>
+        <v>492898.9584344144</v>
       </c>
       <c r="AE13" t="n">
-        <v>566548.5775900081</v>
+        <v>674406.1000973159</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.210513795799624e-06</v>
+        <v>2.398250699332136e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.52864583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>512477.9765007398</v>
+        <v>610041.7284389336</v>
       </c>
     </row>
   </sheetData>
